--- a/仕様/项目1开发用.xlsx
+++ b/仕様/项目1开发用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WINSHARE\GKL\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="Q22" authorId="0" shapeId="0">
+    <comment ref="Q24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,82 @@
         </r>
       </text>
     </comment>
-    <comment ref="U22" authorId="0" shapeId="0">
+    <comment ref="S24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">未入力時、
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MingLiU"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>查</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法MS.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MingLiU"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>查</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法名表示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,6 +127,91 @@
             <charset val="134"/>
           </rPr>
           <t>治具检查的，显示治具显示文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">未入力時、
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MingLiU"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>查</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法MS.核</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>说</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>明</t>
         </r>
       </text>
     </comment>
@@ -83,12 +243,89 @@
           </rPr>
           <t xml:space="preserve">in１：入力値１
 in２：入力値２
-kj1：基準値1
-kj2：基準値2
+kj0：基準値
+kj1：工差1(-)
+kj2：工差2(+)
 &amp;&amp;:　And
 ||　:　Or
 DateAdd(interval,number):日期加算
 now():当前日期
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>null ,空白：未チェック
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>临时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">保存
+1:OK
+9:NG
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>null ,空白：未チェック
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>临时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">保存
+1:OK
+9:NG
 </t>
         </r>
       </text>
@@ -136,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="397">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,119 +866,273 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>chk_formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{in1} like {kj1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{in1}=={kj1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動採番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312D00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312P0001</t>
+  </si>
+  <si>
+    <t>312P0001.img</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查模板编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工差+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>m_check_method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chk_formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>检查</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>方法ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>检查</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>方法名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>检查</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>检查</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>方公式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷尺(6±0.3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{in1} like {kj1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
+    <t>chk_method_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_km_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准説明</t>
+    <rPh sb="2" eb="4">
+      <t>ｾﾂﾒｲ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kj_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kj_1</t>
+  </si>
+  <si>
+    <t>kj_2</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>verify_method_explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kj_explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2035±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1596±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007~2027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷尺(基準値±工差)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷尺(基準値±工差以内)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{in1}&gt;({kj0-kj1}) &amp;&amp; {in1}&lt;({kj0+kj2})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{in1}&gt;=({kj0-kj1}) &amp;&amp; {in1}&lt;=({kj0+kj2})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷尺(2035±0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{in1}&gt;2034.5 &amp;&amp; {in1}&lt;2035.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000016</t>
+  </si>
+  <si>
+    <t>312D00006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法１</t>
+    <rPh sb="0" eb="2">
+      <t>ほうほう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法２</t>
+    <rPh sb="0" eb="2">
+      <t>ほうほう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板名称MS</t>
+    <rPh sb="2" eb="4">
+      <t>めいしょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_temp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,7 +1140,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(20)</t>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">切断、纵框、鸭居、捆包
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_check_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>ｽｳﾘｮｳ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登録者</t>
+    <rPh sb="0" eb="2">
+      <t>ﾄｳﾛｸ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ｼｬ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="2">
+      <t>ﾄｳﾛｸ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ﾋ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ins_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ins_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lis6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,313 +1248,669 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>verify_method_explain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>核</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>说明</t>
-    </r>
+    <t>chk_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>输</t>
+      <t>图片MS</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>入尺寸在基准工差范</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>围</t>
+      <t>检查方法MS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方法MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方法ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方法名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对方法说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码信息与治具ID一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入尺寸在基准工差范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动选择合/否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码信息与基准信息一致（允许通配符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查模板编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查者</t>
+    <rPh sb="2" eb="3">
+      <t>ｼｬ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查完了日</t>
+    <rPh sb="4" eb="5">
+      <t>ﾋ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_check_ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101_000000_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查予定仕様</t>
+    <rPh sb="2" eb="4">
+      <t>よてい</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>しよう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_check_yotei_siyou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订检查日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yotei_chk_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_method_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kj_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kj_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kj_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kj_explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工差-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工差+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{与制品颜色匹配}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6±0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3121000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4枚/set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力値1</t>
+    <rPh sb="0" eb="2">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>あたい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力値2</t>
+    <rPh sb="0" eb="2">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>あたい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作番：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查者：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查日：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未入力时 7日内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查完了日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切断、纵框、鸭居、捆包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101_000000_002</t>
+  </si>
+  <si>
+    <t>20190101_000000_003</t>
+  </si>
+  <si>
+    <t>20190101_000000_004</t>
+  </si>
+  <si>
+    <t>20190101_000000_005</t>
+  </si>
+  <si>
+    <t>20190101_000000_006</t>
+  </si>
+  <si>
+    <t>20190101_000000_007</t>
+  </si>
+  <si>
+    <t>20190101_000000_008</t>
+  </si>
+  <si>
+    <t>20190101_000000_009</t>
+  </si>
+  <si>
+    <t>20190101_000000_010</t>
+  </si>
+  <si>
+    <t>20190101_000000_011</t>
+  </si>
+  <si>
+    <t>20190101_000000_012</t>
+  </si>
+  <si>
+    <t>20190101_000000_013</t>
+  </si>
+  <si>
+    <t>20190101_000000_014</t>
+  </si>
+  <si>
+    <t>20190101_000000_015</t>
+  </si>
+  <si>
+    <t>20190101_000000_016</t>
+  </si>
+  <si>
+    <t>20190101_000000_017</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者</t>
+  </si>
+  <si>
+    <t>テスト者</t>
+    <rPh sb="3" eb="4">
+      <t>しゃ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新规检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线</t>
+  </si>
+  <si>
+    <t>SRM1312A</t>
+  </si>
+  <si>
+    <t>SRM1312A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM1313A</t>
+  </si>
+  <si>
+    <t>SRM1314A</t>
+  </si>
+  <si>
+    <t>SRM1315A</t>
+  </si>
+  <si>
+    <t>SRM1316A</t>
+  </si>
+  <si>
+    <t>SRM1317A</t>
+  </si>
+  <si>
+    <t>SRM1318A</t>
+  </si>
+  <si>
+    <t>SRM1319A</t>
+  </si>
+  <si>
+    <t>SRM1320A</t>
+  </si>
+  <si>
+    <t>SRM1321A</t>
+  </si>
+  <si>
+    <t>SRM1322A</t>
+  </si>
+  <si>
+    <t>SRM1323A</t>
+  </si>
+  <si>
+    <t>SRM1324A</t>
+  </si>
+  <si>
+    <t>SRM1325A</t>
+  </si>
+  <si>
+    <t>SRM1326A</t>
+  </si>
+  <si>
+    <t>SRM1327A</t>
+  </si>
+  <si>
+    <t>SRM1328A</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治具ID</t>
+  </si>
+  <si>
+    <t>312A00001</t>
+  </si>
+  <si>
+    <t>工程</t>
+  </si>
+  <si>
+    <t>切断</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>纵框</t>
+  </si>
+  <si>
+    <t>6±0.3</t>
+  </si>
+  <si>
+    <t>鸭居</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      治具检查画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     检查一览画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作番：</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>内</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>扫码</t>
+      <t>A00000001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CODE：</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>信息与治具ID一致</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>扫码</t>
+      <t>A</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>信息与基准信息一致（允</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>许</t>
+      <t>检查者：</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通配符）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{in1}=={kj1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{in1}&gt;5.7 &amp;&amp; {in1}&lt;6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{in1}&gt;=5.7 &amp;&amp; {in1}&lt;=6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷尺(6±0.3以内)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自動採番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>手</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>动选择</t>
+      <t>3003000</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>合/否</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_tools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>312D00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>312P0001</t>
-  </si>
-  <si>
-    <t>312P0001.img</t>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>片路径</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图片</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目检查画面迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_flg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查flg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T900000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T900000002</t>
+  </si>
+  <si>
+    <t>T900000003</t>
+  </si>
+  <si>
+    <t>T900000004</t>
+  </si>
+  <si>
+    <t>T900000005</t>
+  </si>
+  <si>
+    <t>T900000006</t>
+  </si>
+  <si>
+    <t>T900000007</t>
+  </si>
+  <si>
+    <t>项目建成部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      项目检查画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治具检查画面迁移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,107 +1918,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工程名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图片</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>MS</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>片MS</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>方法MS</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>方法MS</t>
-    </r>
+    <t>输入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治具检查部 （根据 模板MS 生成 ，没有必要 在模板MS做成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan:   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG：1， OK：1 ，全部：15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="26">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1210,25 +2029,10 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -1239,37 +2043,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1282,30 +2057,139 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MingLiU"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="3"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,8 +2208,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1385,6 +2317,339 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1394,7 +2659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1416,36 +2681,546 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1468,15 +3243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:colOff>22406</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>56033</xdr:rowOff>
+      <xdr:rowOff>22415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>11209</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>997322</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1485,8 +3260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10460690" y="4331077"/>
-          <a:ext cx="3473823" cy="1199030"/>
+          <a:off x="11424392" y="4286252"/>
+          <a:ext cx="4067737" cy="1815358"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst/>
@@ -1522,13 +3297,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>44822</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>33622</xdr:rowOff>
+      <xdr:rowOff>33623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>11212</xdr:rowOff>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1537,8 +3312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11654116" y="4347887"/>
-          <a:ext cx="3496237" cy="1143001"/>
+          <a:off x="12662645" y="4325476"/>
+          <a:ext cx="4056531" cy="1748120"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst/>
@@ -1572,15 +3347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>11205</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>112063</xdr:rowOff>
+      <xdr:rowOff>112066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>112065</xdr:rowOff>
+      <xdr:colOff>1030938</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1589,8 +3364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14057778" y="4241432"/>
-          <a:ext cx="3496237" cy="1199030"/>
+          <a:off x="17145001" y="4269447"/>
+          <a:ext cx="4280641" cy="1927409"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst/>
@@ -1616,6 +3391,848 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1042142</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>941293</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="双大括号 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18545735" y="4829737"/>
+          <a:ext cx="4370287" cy="941298"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10925735" y="4538382"/>
+          <a:ext cx="14915030" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221441" y="5277970"/>
+          <a:ext cx="8325971" cy="179295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9547412" y="4633632"/>
+          <a:ext cx="1378323" cy="733986"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="4560794"/>
+          <a:ext cx="8325971" cy="179295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9536206" y="4443132"/>
+          <a:ext cx="1389529" cy="207310"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10925735" y="4347882"/>
+          <a:ext cx="14915030" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="右中かっこ 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22438179" y="14927036"/>
+          <a:ext cx="244928" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="右中かっこ 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22454507" y="18179143"/>
+          <a:ext cx="255814" cy="1417864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>18969</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>16809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>788975</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>16808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30196410" y="27135044"/>
+          <a:ext cx="5140300" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38490526" y="22555200"/>
+          <a:ext cx="285750" cy="2478181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>146238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>29696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38508456" y="22920513"/>
+          <a:ext cx="267820" cy="1874183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>830036</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>639535</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形吹き出し 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28302857" y="28370892"/>
+          <a:ext cx="1292678" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 103013"/>
+            <a:gd name="adj2" fmla="val -110714"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>双击扩大</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258534</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形吹き出し 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12355285" y="26942142"/>
+          <a:ext cx="1292678" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 103013"/>
+            <a:gd name="adj2" fmla="val -110714"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日以内数据查询</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3610,7 +6227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3896,1073 +6513,4233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:W58"/>
+  <dimension ref="C3:AS144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="24"/>
+    <col min="9" max="9" width="12" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="24" customWidth="1"/>
+    <col min="14" max="16" width="14.85546875" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="24" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="13" style="24" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="24"/>
+    <col min="28" max="28" width="13.5703125" style="24" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" style="24" customWidth="1"/>
+    <col min="30" max="30" width="11" style="24" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.140625" style="24" customWidth="1"/>
+    <col min="33" max="33" width="18" style="24" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" style="24" customWidth="1"/>
+    <col min="35" max="35" width="20.5703125" style="24" customWidth="1"/>
+    <col min="36" max="39" width="9.5703125" style="24" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="3:11">
+      <c r="C3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="42.75">
+      <c r="C11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25">
+      <c r="L18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="S18" s="28"/>
+      <c r="T18" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25">
+      <c r="J21" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25">
+      <c r="C22" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
+      <c r="C23" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="T23" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X23" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="24" spans="3:25">
+      <c r="C24" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="W24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
+      <c r="C25" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="W25" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" ht="17.25" thickBot="1">
+      <c r="C26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32">
+        <v>2035</v>
+      </c>
+      <c r="V27" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="W27" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="X27" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" ht="17.25" thickBot="1">
+      <c r="C28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y28" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
+      <c r="C29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
+      <c r="C30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25">
+      <c r="C31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25">
+      <c r="C32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="J33" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26">
+        <v>1596</v>
+      </c>
+      <c r="V33" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="W33" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="X33" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="J34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T35" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36" s="38" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" ht="14.25">
-      <c r="C5" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="J36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S36" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24">
+      <c r="J37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S37" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="J38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="S38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="C39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="S39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24">
+      <c r="C40" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26">
+        <v>2007</v>
+      </c>
+      <c r="V40" s="26">
+        <v>0</v>
+      </c>
+      <c r="W40" s="26">
+        <v>20</v>
+      </c>
+      <c r="X40" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S41" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="C42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24">
+      <c r="C43" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+    </row>
+    <row r="49" spans="3:20">
+      <c r="C49" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q49" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="R49" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20">
+      <c r="C50" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q50" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="R50" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20">
+      <c r="J51" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="O51" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="P51" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q51" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R51" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20">
+      <c r="J52" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="N52" s="21">
+        <v>3</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P52" s="39">
+        <v>43468.423611111109</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="R52" s="39">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20">
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="3:20">
+      <c r="C54" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="3:20">
+      <c r="C55" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="3:20">
+      <c r="C56" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+    </row>
+    <row r="57" spans="3:20">
+      <c r="C57" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="3:20">
+      <c r="C58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="3:20">
+      <c r="C59" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+    </row>
+    <row r="60" spans="3:20">
+      <c r="C60" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="R60" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="S60" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="T60" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20">
+      <c r="J61" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="N61" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="O61" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="P61" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="R61" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="S61" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20">
+      <c r="J62" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O62" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="P62" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q62" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R62" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="S62" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20">
+      <c r="J63" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M63" s="21">
+        <v>3</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O63" s="26">
+        <v>0</v>
+      </c>
+      <c r="P63" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q63" s="39">
+        <v>43468.423611111109</v>
+      </c>
+      <c r="R63" s="26"/>
+      <c r="S63" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="T63" s="39">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20">
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+    </row>
+    <row r="65" spans="10:22">
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="10:22">
+      <c r="J66" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="10:22">
+      <c r="J68" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="10:22">
+      <c r="J69" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="L69" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="N69" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="P69" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q69" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="R69" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="S69" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="T69" s="40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="10:22">
+      <c r="J70" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q70" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="R70" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="S70" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="T70" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="10:22" ht="17.25" thickBot="1">
+      <c r="J71" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="K71" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="L71" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="M71" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="N71" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="O71" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="P71" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q71" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="R71" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="S71" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="T71" s="91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="10:22">
+      <c r="J72" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="K72" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="L72" s="32">
+        <v>0</v>
+      </c>
+      <c r="M72" s="83"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="83"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
+      <c r="T72" s="92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="10:22">
+      <c r="J73" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L73" s="26">
+        <v>0</v>
+      </c>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22">
+        <v>2035</v>
+      </c>
+      <c r="R73" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S73" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="T73" s="93" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="10:22">
+      <c r="J74" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="L74" s="26">
+        <v>0</v>
+      </c>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="10:22">
+      <c r="J75" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="L75" s="26">
+        <v>0</v>
+      </c>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="10:22">
+      <c r="J76" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="L76" s="26">
+        <v>0</v>
+      </c>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="10:22">
+      <c r="J77" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K77" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="L77" s="26">
+        <v>0</v>
+      </c>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="10:22">
+      <c r="J78" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K78" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="L78" s="26">
+        <v>0</v>
+      </c>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="93" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="10:22">
+      <c r="J79" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K79" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="L79" s="26">
+        <v>0</v>
+      </c>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22">
+        <v>1596</v>
+      </c>
+      <c r="R79" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S79" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="T79" s="93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="10:22">
+      <c r="J80" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="L80" s="26">
+        <v>0</v>
+      </c>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="V80" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" spans="10:22">
+      <c r="J81" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K81" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="L81" s="26">
+        <v>0</v>
+      </c>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="10:22">
+      <c r="J82" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K82" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="L82" s="26">
+        <v>0</v>
+      </c>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="10:22">
+      <c r="J83" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K83" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="L83" s="26">
+        <v>0</v>
+      </c>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="93" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="10:22">
+      <c r="J84" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="L84" s="26">
+        <v>0</v>
+      </c>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="10:22">
+      <c r="J85" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K85" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="L85" s="26">
+        <v>0</v>
+      </c>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="10:22">
+      <c r="J86" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22">
+        <v>2007</v>
+      </c>
+      <c r="R86" s="22">
+        <v>0</v>
+      </c>
+      <c r="S86" s="22">
+        <v>20</v>
+      </c>
+      <c r="T86" s="93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="10:22" ht="17.25" thickBot="1">
+      <c r="J87" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="K87" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="L87" s="88">
+        <v>0</v>
+      </c>
+      <c r="M87" s="86"/>
+      <c r="N87" s="86"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="86"/>
+      <c r="Q87" s="86"/>
+      <c r="R87" s="86"/>
+      <c r="S87" s="86"/>
+      <c r="T87" s="94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="10:22">
+      <c r="J88" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="K88" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="L88" s="84">
+        <v>1</v>
+      </c>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="33"/>
+    </row>
+    <row r="89" spans="10:22">
+      <c r="J89" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K89" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="L89" s="82">
+        <v>1</v>
+      </c>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="85"/>
+    </row>
+    <row r="90" spans="10:22">
+      <c r="J90" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K90" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="L90" s="82">
+        <v>1</v>
+      </c>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="85"/>
+    </row>
+    <row r="91" spans="10:22">
+      <c r="J91" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K91" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="L91" s="82">
+        <v>1</v>
+      </c>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="85"/>
+      <c r="V91" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="10:22">
+      <c r="J92" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K92" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="L92" s="82">
+        <v>1</v>
+      </c>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="85"/>
+    </row>
+    <row r="93" spans="10:22">
+      <c r="J93" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K93" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="L93" s="82">
+        <v>1</v>
+      </c>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="85"/>
+    </row>
+    <row r="94" spans="10:22" ht="17.25" thickBot="1">
+      <c r="J94" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="K94" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="L94" s="87">
+        <v>1</v>
+      </c>
+      <c r="M94" s="88"/>
+      <c r="N94" s="88"/>
+      <c r="O94" s="88" t="s">
+        <v>320</v>
+      </c>
+      <c r="P94" s="88"/>
+      <c r="Q94" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="R94" s="88"/>
+      <c r="S94" s="88"/>
+      <c r="T94" s="89"/>
+    </row>
+    <row r="97" spans="9:45" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="98" spans="9:45" ht="57" customHeight="1" thickBot="1">
+      <c r="I98" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="J98" s="47"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="48"/>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="48"/>
+      <c r="R98" s="49"/>
+      <c r="T98" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="U98" s="47"/>
+      <c r="V98" s="48"/>
+      <c r="W98" s="48"/>
+      <c r="X98" s="48"/>
+      <c r="Y98" s="48"/>
+      <c r="Z98" s="48"/>
+      <c r="AA98" s="49"/>
+      <c r="AC98" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD98" s="47"/>
+      <c r="AE98" s="48"/>
+      <c r="AF98" s="48"/>
+      <c r="AG98" s="48"/>
+      <c r="AH98" s="48"/>
+      <c r="AI98" s="48"/>
+      <c r="AJ98" s="48"/>
+      <c r="AK98" s="48"/>
+      <c r="AL98" s="48"/>
+      <c r="AM98" s="48"/>
+      <c r="AN98" s="132"/>
+    </row>
+    <row r="99" spans="9:45" ht="24" customHeight="1" thickBot="1">
+      <c r="I99" s="130"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="52"/>
+      <c r="O99" s="52"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="52"/>
+      <c r="R99" s="53"/>
+      <c r="T99" s="130"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="52"/>
+      <c r="W99" s="52"/>
+      <c r="X99" s="52"/>
+      <c r="Y99" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z99" s="79"/>
+      <c r="AA99" s="53"/>
+      <c r="AC99" s="130"/>
+      <c r="AD99" s="51"/>
+      <c r="AE99" s="52"/>
+      <c r="AF99" s="52"/>
+      <c r="AG99" s="52"/>
+      <c r="AH99" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI99" s="79"/>
+      <c r="AJ99" s="64"/>
+      <c r="AK99" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL99" s="131" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM99" s="131" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN99" s="74"/>
+    </row>
+    <row r="100" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I100" s="73"/>
+      <c r="J100" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="K100" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="L100" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="M100" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="N100" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="O100" s="76">
+        <v>3003000</v>
+      </c>
+      <c r="P100" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="74"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="73"/>
+      <c r="U100" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="V100" s="65"/>
+      <c r="W100" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="X100" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y100" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z100" s="64"/>
+      <c r="AA100" s="74"/>
+      <c r="AB100" s="17"/>
+      <c r="AC100" s="73"/>
+      <c r="AD100" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE100" s="65"/>
+      <c r="AF100" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG100" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH100" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI100" s="64"/>
+      <c r="AJ100" s="64"/>
+      <c r="AK100" s="64"/>
+      <c r="AL100" s="64"/>
+      <c r="AM100" s="64"/>
+      <c r="AN100" s="74"/>
+      <c r="AO100" s="17"/>
+      <c r="AP100" s="17"/>
+      <c r="AQ100" s="17"/>
+      <c r="AR100" s="17"/>
+      <c r="AS100" s="17"/>
+    </row>
+    <row r="101" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I101" s="73"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="74"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="73"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="51"/>
+      <c r="X101" s="51"/>
+      <c r="Y101" s="51"/>
+      <c r="Z101" s="51"/>
+      <c r="AA101" s="74"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="73"/>
+      <c r="AD101" s="51"/>
+      <c r="AE101" s="51"/>
+      <c r="AF101" s="51"/>
+      <c r="AG101" s="51"/>
+      <c r="AH101" s="51"/>
+      <c r="AI101" s="51"/>
+      <c r="AJ101" s="64"/>
+      <c r="AK101" s="64"/>
+      <c r="AL101" s="64"/>
+      <c r="AM101" s="64"/>
+      <c r="AN101" s="74"/>
+      <c r="AO101" s="17"/>
+      <c r="AP101" s="17"/>
+      <c r="AQ101" s="17"/>
+      <c r="AR101" s="17"/>
+      <c r="AS101" s="17"/>
+    </row>
+    <row r="102" spans="9:45" ht="18" thickBot="1">
+      <c r="I102" s="73"/>
+      <c r="J102" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="K102" s="42"/>
+      <c r="L102" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="R102" s="74"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="73"/>
+      <c r="U102" s="134" t="s">
+        <v>393</v>
+      </c>
+      <c r="V102" s="133"/>
+      <c r="W102" s="51"/>
+      <c r="X102" s="51"/>
+      <c r="AA102" s="74"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="73"/>
+      <c r="AD102" s="51"/>
+      <c r="AE102" s="51"/>
+      <c r="AF102" s="51"/>
+      <c r="AG102" s="51"/>
+      <c r="AH102" s="52"/>
+      <c r="AI102" s="52"/>
+      <c r="AJ102" s="64"/>
+      <c r="AK102" s="64"/>
+      <c r="AL102" s="64"/>
+      <c r="AM102" s="137" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN102" s="74"/>
+      <c r="AO102" s="17"/>
+      <c r="AP102" s="17"/>
+      <c r="AQ102" s="17"/>
+      <c r="AR102" s="17"/>
+      <c r="AS102" s="17"/>
+    </row>
+    <row r="103" spans="9:45" ht="16.5" customHeight="1">
+      <c r="I103" s="73"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="74"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="73"/>
+      <c r="Z103" s="51"/>
+      <c r="AA103" s="74"/>
+      <c r="AB103" s="17"/>
+      <c r="AC103" s="73"/>
+      <c r="AD103" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE103" s="46" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" ht="14.25">
-      <c r="C6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="14.25">
-      <c r="C7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="14.25">
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="AF103" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG103" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH103" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI103" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ103" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK103" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL103" s="46"/>
+      <c r="AM103" s="46"/>
+      <c r="AN103" s="74"/>
+      <c r="AO103" s="17"/>
+      <c r="AQ103" s="17"/>
+      <c r="AR103" s="17"/>
+      <c r="AS103" s="17"/>
+    </row>
+    <row r="104" spans="9:45" ht="18.75" thickBot="1">
+      <c r="I104" s="73"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
+      <c r="O104" s="75"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="74"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="73"/>
+      <c r="U104" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="V104" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="W104" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="X104" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y104" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z104" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA104" s="74"/>
+      <c r="AB104" s="17"/>
+      <c r="AC104" s="73"/>
+      <c r="AD104" s="46"/>
+      <c r="AE104" s="46"/>
+      <c r="AF104" s="112"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="46"/>
+      <c r="AI104" s="109"/>
+      <c r="AJ104" s="109"/>
+      <c r="AK104" s="109"/>
+      <c r="AL104" s="109"/>
+      <c r="AM104" s="109"/>
+      <c r="AN104" s="74"/>
+      <c r="AO104" s="17"/>
+      <c r="AQ104" s="17"/>
+      <c r="AR104" s="17"/>
+      <c r="AS104" s="17"/>
+    </row>
+    <row r="105" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I105" s="73"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L105" s="51"/>
+      <c r="M105" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="N105" s="51"/>
+      <c r="O105" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="R105" s="74"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="73"/>
+      <c r="U105" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="V105" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="W105" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="X105" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y105" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z105" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA105" s="74"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="73"/>
+      <c r="AD105" s="110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" ht="14.25">
-      <c r="C9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="AE105" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF105" s="110"/>
+      <c r="AG105" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH105" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI105" s="113" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ105" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK105" s="122" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL105" s="123"/>
+      <c r="AM105" s="124"/>
+      <c r="AN105" s="74"/>
+      <c r="AO105" s="17"/>
+      <c r="AQ105" s="17"/>
+      <c r="AR105" s="17"/>
+      <c r="AS105" s="17"/>
+    </row>
+    <row r="106" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I106" s="73"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="74"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="73"/>
+      <c r="U106" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="V106" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="W106" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="X106" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y106" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z106" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA106" s="74"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="73"/>
+      <c r="AD106" s="106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" ht="14.25">
-      <c r="C10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="AE106" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF106" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG106" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH106" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI106" s="113">
+        <v>2305.1</v>
+      </c>
+      <c r="AJ106" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK106" s="119"/>
+      <c r="AL106" s="120"/>
+      <c r="AM106" s="121"/>
+      <c r="AN106" s="74"/>
+      <c r="AO106" s="17"/>
+      <c r="AQ106" s="17"/>
+      <c r="AR106" s="17"/>
+      <c r="AS106" s="17"/>
+    </row>
+    <row r="107" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I107" s="50"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
+      <c r="O107" s="52"/>
+      <c r="P107" s="52"/>
+      <c r="Q107" s="52"/>
+      <c r="R107" s="53"/>
+      <c r="T107" s="50"/>
+      <c r="U107" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V107" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="W107" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="X107" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y107" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z107" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA107" s="53"/>
+      <c r="AC107" s="50"/>
+      <c r="AD107" s="107"/>
+      <c r="AE107" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF107" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG107" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH107" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI107" s="113">
+        <v>2035.2</v>
+      </c>
+      <c r="AJ107" s="105"/>
+      <c r="AK107" s="119"/>
+      <c r="AL107" s="120"/>
+      <c r="AM107" s="121"/>
+      <c r="AN107" s="53"/>
+    </row>
+    <row r="108" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I108" s="50"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="53"/>
+      <c r="T108" s="50"/>
+      <c r="U108" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="W108" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="X108" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y108" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z108" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA108" s="53"/>
+      <c r="AC108" s="50"/>
+      <c r="AD108" s="107"/>
+      <c r="AE108" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF108" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG108" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH108" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI108" s="100"/>
+      <c r="AJ108" s="101"/>
+      <c r="AK108" s="119"/>
+      <c r="AL108" s="120"/>
+      <c r="AM108" s="121"/>
+      <c r="AN108" s="53"/>
+    </row>
+    <row r="109" spans="9:45" ht="18.75" thickBot="1">
+      <c r="I109" s="50"/>
+      <c r="J109" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="K109" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="O109" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P109" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q109" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="R109" s="53"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V109" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="W109" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="X109" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y109" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z109" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA109" s="53"/>
+      <c r="AC109" s="50"/>
+      <c r="AD109" s="107"/>
+      <c r="AE109" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF109" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG109" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH109" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI109" s="100"/>
+      <c r="AJ109" s="101"/>
+      <c r="AK109" s="119"/>
+      <c r="AL109" s="120"/>
+      <c r="AM109" s="121"/>
+      <c r="AN109" s="53"/>
+    </row>
+    <row r="110" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I110" s="50"/>
+      <c r="J110" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="K110" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L110" s="58"/>
+      <c r="M110" s="58"/>
+      <c r="N110" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O110" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="P110" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q110" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="R110" s="53"/>
+      <c r="T110" s="50"/>
+      <c r="U110" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="V110" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="W110" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="X110" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y110" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z110" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA110" s="53"/>
+      <c r="AC110" s="50"/>
+      <c r="AD110" s="107"/>
+      <c r="AE110" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF110" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG110" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH110" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI110" s="100"/>
+      <c r="AJ110" s="101"/>
+      <c r="AK110" s="119"/>
+      <c r="AL110" s="120"/>
+      <c r="AM110" s="121"/>
+      <c r="AN110" s="53"/>
+    </row>
+    <row r="111" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I111" s="50"/>
+      <c r="J111" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="K111" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L111" s="58"/>
+      <c r="M111" s="58"/>
+      <c r="N111" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O111" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="P111" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q111" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="R111" s="53"/>
+      <c r="T111" s="50"/>
+      <c r="U111" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V111" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="W111" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="X111" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y111" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z111" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA111" s="53"/>
+      <c r="AC111" s="50"/>
+      <c r="AD111" s="108"/>
+      <c r="AE111" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF111" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG111" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH111" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI111" s="100"/>
+      <c r="AJ111" s="101"/>
+      <c r="AK111" s="119"/>
+      <c r="AL111" s="120"/>
+      <c r="AM111" s="121"/>
+      <c r="AN111" s="53"/>
+    </row>
+    <row r="112" spans="9:45" ht="17.25" thickBot="1">
+      <c r="I112" s="50"/>
+      <c r="J112" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="K112" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="L112" s="60"/>
+      <c r="M112" s="60"/>
+      <c r="N112" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="O112" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="P112" s="63">
+        <v>43468</v>
+      </c>
+      <c r="Q112" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="R112" s="53"/>
+      <c r="T112" s="50"/>
+      <c r="Z112" s="52"/>
+      <c r="AA112" s="53"/>
+      <c r="AC112" s="50"/>
+      <c r="AD112" s="106" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" ht="14.25">
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="AE112" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF112" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG112" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH112" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI112" s="100"/>
+      <c r="AJ112" s="101"/>
+      <c r="AK112" s="119"/>
+      <c r="AL112" s="120"/>
+      <c r="AM112" s="121"/>
+      <c r="AN112" s="53"/>
+    </row>
+    <row r="113" spans="9:40" ht="17.25" thickBot="1">
+      <c r="I113" s="50"/>
+      <c r="J113" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="K113" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L113" s="58"/>
+      <c r="M113" s="58"/>
+      <c r="N113" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O113" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="P113" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q113" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="R113" s="53"/>
+      <c r="T113" s="50"/>
+      <c r="AA113" s="53"/>
+      <c r="AC113" s="50"/>
+      <c r="AD113" s="107"/>
+      <c r="AE113" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF113" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG113" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH113" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI113" s="100"/>
+      <c r="AJ113" s="101"/>
+      <c r="AK113" s="119"/>
+      <c r="AL113" s="120"/>
+      <c r="AM113" s="121"/>
+      <c r="AN113" s="53"/>
+    </row>
+    <row r="114" spans="9:40" ht="17.25" thickBot="1">
+      <c r="I114" s="50"/>
+      <c r="J114" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="K114" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L114" s="58"/>
+      <c r="M114" s="58"/>
+      <c r="N114" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O114" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="P114" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q114" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R114" s="53"/>
+      <c r="T114" s="50"/>
+      <c r="U114" s="52"/>
+      <c r="V114" s="52"/>
+      <c r="W114" s="52"/>
+      <c r="X114" s="52"/>
+      <c r="AA114" s="53"/>
+      <c r="AC114" s="50"/>
+      <c r="AD114" s="107"/>
+      <c r="AE114" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF114" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG114" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH114" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI114" s="100"/>
+      <c r="AJ114" s="101"/>
+      <c r="AK114" s="119"/>
+      <c r="AL114" s="120"/>
+      <c r="AM114" s="121"/>
+      <c r="AN114" s="53"/>
+    </row>
+    <row r="115" spans="9:40" ht="17.25" thickBot="1">
+      <c r="I115" s="50"/>
+      <c r="J115" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="K115" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O115" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="P115" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q115" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R115" s="53"/>
+      <c r="T115" s="54"/>
+      <c r="U115" s="56"/>
+      <c r="V115" s="56"/>
+      <c r="W115" s="56"/>
+      <c r="X115" s="56"/>
+      <c r="Y115" s="56"/>
+      <c r="Z115" s="56"/>
+      <c r="AA115" s="57"/>
+      <c r="AC115" s="50"/>
+      <c r="AD115" s="107"/>
+      <c r="AE115" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF115" s="96"/>
+      <c r="AG115" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH115" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI115" s="100"/>
+      <c r="AJ115" s="101"/>
+      <c r="AK115" s="119"/>
+      <c r="AL115" s="120"/>
+      <c r="AM115" s="121"/>
+      <c r="AN115" s="53"/>
+    </row>
+    <row r="116" spans="9:40" ht="3" customHeight="1" thickBot="1">
+      <c r="I116" s="50"/>
+      <c r="J116" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="K116" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O116" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="P116" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q116" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R116" s="53"/>
+      <c r="AC116" s="50"/>
+      <c r="AD116" s="108"/>
+      <c r="AE116" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF116" s="96"/>
+      <c r="AG116" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH116" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI116" s="100"/>
+      <c r="AJ116" s="101"/>
+      <c r="AK116" s="119"/>
+      <c r="AL116" s="120"/>
+      <c r="AM116" s="121"/>
+      <c r="AN116" s="53"/>
+    </row>
+    <row r="117" spans="9:40" ht="17.25" hidden="1" thickBot="1">
+      <c r="I117" s="50"/>
+      <c r="J117" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="K117" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O117" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="P117" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q117" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R117" s="53"/>
+      <c r="AC117" s="50"/>
+      <c r="AD117" s="106" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="3:23">
-      <c r="L18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="R18" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="S18" s="14"/>
-    </row>
-    <row r="22" spans="3:23" ht="14.25">
-      <c r="C22" s="8" t="s">
+      <c r="AE117" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF117" s="96"/>
+      <c r="AG117" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH117" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI117" s="100"/>
+      <c r="AJ117" s="101"/>
+      <c r="AK117" s="111"/>
+      <c r="AL117" s="52"/>
+      <c r="AM117" s="52"/>
+      <c r="AN117" s="53"/>
+    </row>
+    <row r="118" spans="9:40" ht="17.25" hidden="1" thickBot="1">
+      <c r="I118" s="50"/>
+      <c r="J118" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="K118" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O118" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="P118" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q118" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R118" s="53"/>
+      <c r="AC118" s="50"/>
+      <c r="AD118" s="107"/>
+      <c r="AE118" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF118" s="96"/>
+      <c r="AG118" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH118" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI118" s="100"/>
+      <c r="AJ118" s="101"/>
+      <c r="AK118" s="100"/>
+      <c r="AL118" s="52"/>
+      <c r="AM118" s="52"/>
+      <c r="AN118" s="53"/>
+    </row>
+    <row r="119" spans="9:40" ht="17.25" hidden="1" thickBot="1">
+      <c r="I119" s="50"/>
+      <c r="J119" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="K119" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L119" s="58"/>
+      <c r="M119" s="58"/>
+      <c r="N119" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O119" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="P119" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q119" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R119" s="53"/>
+      <c r="AC119" s="50"/>
+      <c r="AD119" s="107"/>
+      <c r="AE119" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF119" s="96"/>
+      <c r="AG119" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH119" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="AI119" s="100"/>
+      <c r="AJ119" s="101"/>
+      <c r="AK119" s="100"/>
+      <c r="AL119" s="52"/>
+      <c r="AM119" s="52"/>
+      <c r="AN119" s="53"/>
+    </row>
+    <row r="120" spans="9:40" ht="17.25" hidden="1" thickBot="1">
+      <c r="I120" s="50"/>
+      <c r="J120" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="K120" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L120" s="58"/>
+      <c r="M120" s="58"/>
+      <c r="N120" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O120" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="P120" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q120" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R120" s="53"/>
+      <c r="AC120" s="50"/>
+      <c r="AD120" s="108"/>
+      <c r="AE120" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF120" s="96"/>
+      <c r="AG120" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH120" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI120" s="100"/>
+      <c r="AJ120" s="104"/>
+      <c r="AK120" s="100"/>
+      <c r="AL120" s="52"/>
+      <c r="AM120" s="52"/>
+      <c r="AN120" s="53"/>
+    </row>
+    <row r="121" spans="9:40">
+      <c r="I121" s="50"/>
+      <c r="J121" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="K121" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L121" s="58"/>
+      <c r="M121" s="58"/>
+      <c r="N121" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O121" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="P121" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q121" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R121" s="53"/>
+      <c r="AC121" s="50"/>
+      <c r="AD121" s="52"/>
+      <c r="AE121" s="52"/>
+      <c r="AF121" s="52"/>
+      <c r="AG121" s="52"/>
+      <c r="AH121" s="52"/>
+      <c r="AI121" s="52"/>
+      <c r="AJ121" s="52"/>
+      <c r="AK121" s="52"/>
+      <c r="AL121" s="52"/>
+      <c r="AM121" s="52"/>
+      <c r="AN121" s="53"/>
+    </row>
+    <row r="122" spans="9:40">
+      <c r="I122" s="50"/>
+      <c r="J122" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="K122" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L122" s="58"/>
+      <c r="M122" s="58"/>
+      <c r="N122" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O122" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="P122" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q122" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R122" s="53"/>
+      <c r="AC122" s="50"/>
+      <c r="AD122" s="52"/>
+      <c r="AE122" s="52"/>
+      <c r="AF122" s="52"/>
+      <c r="AG122" s="52"/>
+      <c r="AH122" s="52"/>
+      <c r="AI122" s="52"/>
+      <c r="AJ122" s="52"/>
+      <c r="AK122" s="52"/>
+      <c r="AL122" s="52"/>
+      <c r="AM122" s="52"/>
+      <c r="AN122" s="53"/>
+    </row>
+    <row r="123" spans="9:40">
+      <c r="I123" s="50"/>
+      <c r="J123" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="K123" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L123" s="58"/>
+      <c r="M123" s="58"/>
+      <c r="N123" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O123" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="P123" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q123" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R123" s="53"/>
+      <c r="AC123" s="50"/>
+      <c r="AD123" s="136" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE123" s="52"/>
+      <c r="AF123" s="52"/>
+      <c r="AG123" s="52"/>
+      <c r="AH123" s="52"/>
+      <c r="AI123" s="52"/>
+      <c r="AJ123" s="136" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK123" s="52"/>
+      <c r="AL123" s="52"/>
+      <c r="AM123" s="52"/>
+      <c r="AN123" s="53"/>
+    </row>
+    <row r="124" spans="9:40" ht="36.75" customHeight="1">
+      <c r="I124" s="50"/>
+      <c r="J124" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="K124" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L124" s="58"/>
+      <c r="M124" s="58"/>
+      <c r="N124" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O124" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="P124" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q124" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R124" s="53"/>
+      <c r="AC124" s="50"/>
+      <c r="AD124" s="52"/>
+      <c r="AE124" s="52"/>
+      <c r="AF124" s="52"/>
+      <c r="AG124" s="52"/>
+      <c r="AH124" s="52"/>
+      <c r="AI124" s="52"/>
+      <c r="AJ124" s="114">
+        <v>7</v>
+      </c>
+      <c r="AK124" s="114">
+        <v>8</v>
+      </c>
+      <c r="AL124" s="114">
+        <v>9</v>
+      </c>
+      <c r="AM124" s="128" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN124" s="53"/>
+    </row>
+    <row r="125" spans="9:40" ht="36.75" customHeight="1">
+      <c r="I125" s="50"/>
+      <c r="J125" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="K125" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L125" s="58"/>
+      <c r="M125" s="58"/>
+      <c r="N125" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O125" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="P125" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q125" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R125" s="53"/>
+      <c r="AC125" s="50"/>
+      <c r="AD125" s="52"/>
+      <c r="AE125" s="52"/>
+      <c r="AF125" s="52"/>
+      <c r="AG125" s="52"/>
+      <c r="AH125" s="52"/>
+      <c r="AI125" s="52"/>
+      <c r="AJ125" s="114">
         <v>4</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="AK125" s="114">
+        <v>5</v>
+      </c>
+      <c r="AL125" s="114">
+        <v>6</v>
+      </c>
+      <c r="AM125" s="129"/>
+      <c r="AN125" s="53"/>
+    </row>
+    <row r="126" spans="9:40" ht="36.75" customHeight="1">
+      <c r="I126" s="50"/>
+      <c r="J126" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="K126" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L126" s="58"/>
+      <c r="M126" s="58"/>
+      <c r="N126" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O126" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="P126" s="39">
+        <v>43468</v>
+      </c>
+      <c r="Q126" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R126" s="53"/>
+      <c r="AC126" s="50"/>
+      <c r="AD126" s="52"/>
+      <c r="AE126" s="52"/>
+      <c r="AF126" s="52"/>
+      <c r="AG126" s="52"/>
+      <c r="AH126" s="52"/>
+      <c r="AI126" s="52"/>
+      <c r="AJ126" s="114">
         <v>1</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" s="1" t="s">
+      <c r="AK126" s="114">
         <v>2</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="1" t="s">
+      <c r="AL126" s="114">
         <v>3</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" ht="14.25">
-      <c r="C23" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="3:23" ht="14.25">
-      <c r="C24" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1">
-        <v>2035</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" ht="14.25">
-      <c r="C25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="3:23" ht="14.25">
-      <c r="C26" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="J26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="3:23" ht="14.25">
-      <c r="C27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="3:23" ht="14.25">
-      <c r="C28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="AM126" s="115" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN126" s="53"/>
+    </row>
+    <row r="127" spans="9:40" ht="36.75" customHeight="1">
+      <c r="I127" s="50"/>
+      <c r="J127" s="51"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="52"/>
+      <c r="O127" s="52"/>
+      <c r="P127" s="52"/>
+      <c r="Q127" s="52"/>
+      <c r="R127" s="53"/>
+      <c r="AC127" s="50"/>
+      <c r="AD127" s="52"/>
+      <c r="AE127" s="52"/>
+      <c r="AF127" s="52"/>
+      <c r="AG127" s="52"/>
+      <c r="AH127" s="52"/>
+      <c r="AI127" s="52"/>
+      <c r="AJ127" s="117">
         <v>0</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="3:23" ht="14.25">
-      <c r="C29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1">
-        <v>1596</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" ht="14.25">
-      <c r="C30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="3:23" ht="14.25">
-      <c r="C31" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="3:23" ht="14.25">
-      <c r="J32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="3:23" ht="14.25">
-      <c r="C33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="3:23" ht="14.25">
-      <c r="C34" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="3:23" ht="14.25">
-      <c r="J35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="3:23" ht="14.25">
-      <c r="J36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1">
-        <v>2007</v>
-      </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="3:23" ht="14.25">
-      <c r="C37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="3:23">
-      <c r="C38" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="3:23" ht="14.25">
-      <c r="C39" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="3:23" ht="14.25">
-      <c r="C40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="3:23" ht="14.25">
-      <c r="C41" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="3:23" ht="14.25">
-      <c r="C42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="3:23" ht="14.25">
-      <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="3:23" ht="14.25">
-      <c r="C44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="3:23" ht="14.25">
-      <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="3:23" ht="14.25">
-      <c r="C46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:23" ht="14.25">
-      <c r="C47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="3:23" ht="14.25">
-      <c r="C48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" ht="14.25">
-      <c r="C54" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" ht="14.25">
-      <c r="C55" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" ht="14.25">
-      <c r="C56" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" ht="14.25">
-      <c r="C57" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" ht="14.25">
-      <c r="C58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AK127" s="118"/>
+      <c r="AL127" s="114" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM127" s="116"/>
+      <c r="AN127" s="53"/>
+    </row>
+    <row r="128" spans="9:40" ht="9" customHeight="1">
+      <c r="I128" s="50"/>
+      <c r="J128" s="51"/>
+      <c r="K128" s="52"/>
+      <c r="L128" s="52"/>
+      <c r="M128" s="52"/>
+      <c r="N128" s="52"/>
+      <c r="O128" s="52"/>
+      <c r="P128" s="52"/>
+      <c r="Q128" s="52"/>
+      <c r="R128" s="53"/>
+      <c r="AC128" s="50"/>
+      <c r="AD128" s="52"/>
+      <c r="AE128" s="52"/>
+      <c r="AF128" s="52"/>
+      <c r="AG128" s="52"/>
+      <c r="AH128" s="52"/>
+      <c r="AI128" s="52"/>
+      <c r="AJ128" s="52"/>
+      <c r="AK128" s="52"/>
+      <c r="AL128" s="52"/>
+      <c r="AM128" s="52"/>
+      <c r="AN128" s="53"/>
+    </row>
+    <row r="129" spans="9:40" ht="9" customHeight="1">
+      <c r="I129" s="50"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="52"/>
+      <c r="L129" s="52"/>
+      <c r="M129" s="52"/>
+      <c r="N129" s="52"/>
+      <c r="O129" s="52"/>
+      <c r="P129" s="52"/>
+      <c r="Q129" s="52"/>
+      <c r="R129" s="53"/>
+      <c r="AC129" s="50"/>
+      <c r="AD129" s="52"/>
+      <c r="AE129" s="52"/>
+      <c r="AF129" s="52"/>
+      <c r="AG129" s="52"/>
+      <c r="AH129" s="52"/>
+      <c r="AI129" s="52"/>
+      <c r="AJ129" s="52"/>
+      <c r="AK129" s="52"/>
+      <c r="AL129" s="52"/>
+      <c r="AM129" s="52"/>
+      <c r="AN129" s="53"/>
+    </row>
+    <row r="130" spans="9:40" ht="0.75" customHeight="1">
+      <c r="I130" s="50"/>
+      <c r="J130" s="51"/>
+      <c r="K130" s="52"/>
+      <c r="L130" s="52"/>
+      <c r="M130" s="52"/>
+      <c r="N130" s="52"/>
+      <c r="O130" s="52"/>
+      <c r="P130" s="52"/>
+      <c r="Q130" s="52"/>
+      <c r="R130" s="53"/>
+      <c r="AC130" s="50"/>
+      <c r="AD130" s="52"/>
+      <c r="AE130" s="52"/>
+      <c r="AF130" s="52"/>
+      <c r="AG130" s="52"/>
+      <c r="AH130" s="52"/>
+      <c r="AI130" s="52"/>
+      <c r="AJ130" s="125" t="s">
+        <v>388</v>
+      </c>
+      <c r="AK130" s="127" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL130" s="127" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM130" s="126" t="s">
+        <v>383</v>
+      </c>
+      <c r="AN130" s="53"/>
+    </row>
+    <row r="131" spans="9:40" ht="0.75" customHeight="1">
+      <c r="I131" s="50"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="52"/>
+      <c r="L131" s="52"/>
+      <c r="M131" s="52"/>
+      <c r="N131" s="52"/>
+      <c r="O131" s="52"/>
+      <c r="P131" s="52"/>
+      <c r="Q131" s="52"/>
+      <c r="R131" s="53"/>
+      <c r="AC131" s="50"/>
+      <c r="AD131" s="52"/>
+      <c r="AE131" s="52"/>
+      <c r="AF131" s="52"/>
+      <c r="AG131" s="52"/>
+      <c r="AH131" s="52"/>
+      <c r="AI131" s="52"/>
+      <c r="AJ131" s="125"/>
+      <c r="AK131" s="127" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL131" s="127" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM131" s="126"/>
+      <c r="AN131" s="53"/>
+    </row>
+    <row r="132" spans="9:40">
+      <c r="I132" s="50"/>
+      <c r="J132" s="51"/>
+      <c r="K132" s="52"/>
+      <c r="L132" s="52"/>
+      <c r="M132" s="52"/>
+      <c r="N132" s="52"/>
+      <c r="O132" s="52"/>
+      <c r="P132" s="52"/>
+      <c r="Q132" s="52"/>
+      <c r="R132" s="53"/>
+      <c r="AC132" s="50"/>
+      <c r="AD132" s="52"/>
+      <c r="AE132" s="52"/>
+      <c r="AF132" s="52"/>
+      <c r="AG132" s="52"/>
+      <c r="AH132" s="52"/>
+      <c r="AI132" s="52"/>
+      <c r="AJ132" s="52"/>
+      <c r="AK132" s="52"/>
+      <c r="AL132" s="52"/>
+      <c r="AM132" s="52"/>
+      <c r="AN132" s="53"/>
+    </row>
+    <row r="133" spans="9:40" ht="16.5" customHeight="1">
+      <c r="I133" s="50"/>
+      <c r="J133" s="51"/>
+      <c r="K133" s="52"/>
+      <c r="L133" s="52"/>
+      <c r="M133" s="52"/>
+      <c r="N133" s="52"/>
+      <c r="O133" s="52"/>
+      <c r="P133" s="52"/>
+      <c r="Q133" s="52"/>
+      <c r="R133" s="53"/>
+      <c r="AC133" s="50"/>
+      <c r="AD133" s="52"/>
+      <c r="AE133" s="52"/>
+      <c r="AF133" s="52"/>
+      <c r="AG133" s="52"/>
+      <c r="AH133" s="52"/>
+      <c r="AI133" s="52"/>
+      <c r="AJ133" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK133" s="125"/>
+      <c r="AL133" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM133" s="126"/>
+      <c r="AN133" s="53"/>
+    </row>
+    <row r="134" spans="9:40" ht="16.5" customHeight="1">
+      <c r="I134" s="50"/>
+      <c r="J134" s="51"/>
+      <c r="K134" s="52"/>
+      <c r="L134" s="52"/>
+      <c r="M134" s="52"/>
+      <c r="N134" s="52"/>
+      <c r="O134" s="52"/>
+      <c r="P134" s="52"/>
+      <c r="Q134" s="52"/>
+      <c r="R134" s="53"/>
+      <c r="AC134" s="50"/>
+      <c r="AD134" s="52"/>
+      <c r="AE134" s="52"/>
+      <c r="AF134" s="52"/>
+      <c r="AG134" s="52"/>
+      <c r="AH134" s="52"/>
+      <c r="AI134" s="52"/>
+      <c r="AJ134" s="125"/>
+      <c r="AK134" s="125"/>
+      <c r="AL134" s="126"/>
+      <c r="AM134" s="126"/>
+      <c r="AN134" s="53"/>
+    </row>
+    <row r="135" spans="9:40">
+      <c r="I135" s="50"/>
+      <c r="J135" s="51"/>
+      <c r="K135" s="52"/>
+      <c r="L135" s="52"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
+      <c r="O135" s="52"/>
+      <c r="P135" s="52"/>
+      <c r="Q135" s="52"/>
+      <c r="R135" s="53"/>
+      <c r="AC135" s="50"/>
+      <c r="AD135" s="52"/>
+      <c r="AE135" s="52"/>
+      <c r="AF135" s="52"/>
+      <c r="AG135" s="52"/>
+      <c r="AH135" s="52"/>
+      <c r="AI135" s="52"/>
+      <c r="AJ135" s="52"/>
+      <c r="AK135" s="52"/>
+      <c r="AL135" s="52"/>
+      <c r="AM135" s="52"/>
+      <c r="AN135" s="53"/>
+    </row>
+    <row r="136" spans="9:40">
+      <c r="I136" s="50"/>
+      <c r="J136" s="51"/>
+      <c r="K136" s="52"/>
+      <c r="L136" s="52"/>
+      <c r="M136" s="52"/>
+      <c r="N136" s="52"/>
+      <c r="O136" s="52"/>
+      <c r="P136" s="52"/>
+      <c r="Q136" s="52"/>
+      <c r="R136" s="53"/>
+      <c r="AC136" s="50"/>
+      <c r="AD136" s="52"/>
+      <c r="AE136" s="52"/>
+      <c r="AF136" s="52"/>
+      <c r="AG136" s="52"/>
+      <c r="AH136" s="52"/>
+      <c r="AI136" s="52"/>
+      <c r="AJ136" s="52"/>
+      <c r="AK136" s="52"/>
+      <c r="AL136" s="52"/>
+      <c r="AM136" s="52"/>
+      <c r="AN136" s="53"/>
+    </row>
+    <row r="137" spans="9:40">
+      <c r="I137" s="50"/>
+      <c r="J137" s="51"/>
+      <c r="K137" s="52"/>
+      <c r="L137" s="52"/>
+      <c r="M137" s="52"/>
+      <c r="N137" s="52"/>
+      <c r="O137" s="52"/>
+      <c r="P137" s="52"/>
+      <c r="Q137" s="52"/>
+      <c r="R137" s="53"/>
+      <c r="AC137" s="50"/>
+      <c r="AD137" s="52"/>
+      <c r="AE137" s="52"/>
+      <c r="AF137" s="52"/>
+      <c r="AG137" s="52"/>
+      <c r="AH137" s="52"/>
+      <c r="AI137" s="52"/>
+      <c r="AJ137" s="52"/>
+      <c r="AK137" s="52"/>
+      <c r="AL137" s="52"/>
+      <c r="AM137" s="52"/>
+      <c r="AN137" s="53"/>
+    </row>
+    <row r="138" spans="9:40">
+      <c r="I138" s="50"/>
+      <c r="J138" s="51"/>
+      <c r="K138" s="52"/>
+      <c r="L138" s="52"/>
+      <c r="M138" s="52"/>
+      <c r="N138" s="52"/>
+      <c r="O138" s="52"/>
+      <c r="P138" s="52"/>
+      <c r="Q138" s="52"/>
+      <c r="R138" s="53"/>
+      <c r="AC138" s="50"/>
+      <c r="AD138" s="52"/>
+      <c r="AE138" s="52"/>
+      <c r="AF138" s="52"/>
+      <c r="AG138" s="52"/>
+      <c r="AH138" s="52"/>
+      <c r="AI138" s="52"/>
+      <c r="AJ138" s="52"/>
+      <c r="AK138" s="52"/>
+      <c r="AL138" s="52"/>
+      <c r="AM138" s="52"/>
+      <c r="AN138" s="53"/>
+    </row>
+    <row r="139" spans="9:40">
+      <c r="I139" s="50"/>
+      <c r="J139" s="51"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="52"/>
+      <c r="N139" s="52"/>
+      <c r="O139" s="52"/>
+      <c r="P139" s="52"/>
+      <c r="Q139" s="52"/>
+      <c r="R139" s="53"/>
+      <c r="AC139" s="50"/>
+      <c r="AD139" s="52"/>
+      <c r="AE139" s="52"/>
+      <c r="AF139" s="52"/>
+      <c r="AG139" s="52"/>
+      <c r="AH139" s="52"/>
+      <c r="AI139" s="52"/>
+      <c r="AJ139" s="52"/>
+      <c r="AK139" s="52"/>
+      <c r="AL139" s="52"/>
+      <c r="AM139" s="52"/>
+      <c r="AN139" s="53"/>
+    </row>
+    <row r="140" spans="9:40" ht="17.25" thickBot="1">
+      <c r="I140" s="54"/>
+      <c r="J140" s="55"/>
+      <c r="K140" s="56"/>
+      <c r="L140" s="56"/>
+      <c r="M140" s="56"/>
+      <c r="N140" s="56"/>
+      <c r="O140" s="56"/>
+      <c r="P140" s="56"/>
+      <c r="Q140" s="56"/>
+      <c r="R140" s="57"/>
+      <c r="AC140" s="50"/>
+      <c r="AD140" s="52"/>
+      <c r="AE140" s="52"/>
+      <c r="AF140" s="52"/>
+      <c r="AG140" s="52"/>
+      <c r="AH140" s="52"/>
+      <c r="AI140" s="52"/>
+      <c r="AJ140" s="52"/>
+      <c r="AK140" s="52"/>
+      <c r="AL140" s="52"/>
+      <c r="AM140" s="52"/>
+      <c r="AN140" s="53"/>
+    </row>
+    <row r="141" spans="9:40">
+      <c r="AC141" s="50"/>
+      <c r="AD141" s="52"/>
+      <c r="AE141" s="52"/>
+      <c r="AF141" s="52"/>
+      <c r="AG141" s="52"/>
+      <c r="AH141" s="52"/>
+      <c r="AI141" s="52"/>
+      <c r="AJ141" s="52"/>
+      <c r="AK141" s="52"/>
+      <c r="AL141" s="52"/>
+      <c r="AM141" s="52"/>
+      <c r="AN141" s="53"/>
+    </row>
+    <row r="142" spans="9:40">
+      <c r="AC142" s="50"/>
+      <c r="AD142" s="52"/>
+      <c r="AE142" s="52"/>
+      <c r="AF142" s="52"/>
+      <c r="AG142" s="52"/>
+      <c r="AH142" s="52"/>
+      <c r="AI142" s="52"/>
+      <c r="AJ142" s="52"/>
+      <c r="AK142" s="52"/>
+      <c r="AL142" s="52"/>
+      <c r="AM142" s="52"/>
+      <c r="AN142" s="53"/>
+    </row>
+    <row r="143" spans="9:40">
+      <c r="AC143" s="50"/>
+      <c r="AD143" s="52"/>
+      <c r="AE143" s="52"/>
+      <c r="AF143" s="52"/>
+      <c r="AG143" s="52"/>
+      <c r="AH143" s="52"/>
+      <c r="AI143" s="52"/>
+      <c r="AJ143" s="52"/>
+      <c r="AK143" s="52"/>
+      <c r="AL143" s="52"/>
+      <c r="AM143" s="52"/>
+      <c r="AN143" s="53"/>
+    </row>
+    <row r="144" spans="9:40" ht="17.25" thickBot="1">
+      <c r="AC144" s="54"/>
+      <c r="AD144" s="56"/>
+      <c r="AE144" s="56"/>
+      <c r="AF144" s="56"/>
+      <c r="AG144" s="56"/>
+      <c r="AH144" s="56"/>
+      <c r="AI144" s="56"/>
+      <c r="AJ144" s="56"/>
+      <c r="AK144" s="56"/>
+      <c r="AL144" s="56"/>
+      <c r="AM144" s="56"/>
+      <c r="AN144" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="54">
+    <mergeCell ref="AJ133:AK134"/>
+    <mergeCell ref="AL133:AM134"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AK115:AM115"/>
+    <mergeCell ref="AK116:AM116"/>
+    <mergeCell ref="AM130:AM131"/>
+    <mergeCell ref="AJ130:AJ131"/>
+    <mergeCell ref="AK110:AM110"/>
+    <mergeCell ref="AK111:AM111"/>
+    <mergeCell ref="AK112:AM112"/>
+    <mergeCell ref="AK113:AM113"/>
+    <mergeCell ref="AK114:AM114"/>
+    <mergeCell ref="AM126:AM127"/>
+    <mergeCell ref="AM124:AM125"/>
+    <mergeCell ref="AJ127:AK127"/>
+    <mergeCell ref="AD112:AD116"/>
+    <mergeCell ref="AD117:AD120"/>
+    <mergeCell ref="AF103:AF104"/>
+    <mergeCell ref="AE103:AE104"/>
+    <mergeCell ref="AD103:AD104"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AD106:AD111"/>
+    <mergeCell ref="AI103:AI104"/>
+    <mergeCell ref="AJ103:AJ104"/>
+    <mergeCell ref="AG103:AG104"/>
+    <mergeCell ref="AH103:AH104"/>
+    <mergeCell ref="AK105:AM105"/>
+    <mergeCell ref="AK103:AM104"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="AK107:AM107"/>
+    <mergeCell ref="AK108:AM108"/>
+    <mergeCell ref="AK109:AM109"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K109:M109"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="K113:M113"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="O49:O52">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P49:P50">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60:N63">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P60:R61">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S60:T61">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O62">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O60:O61">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49:R50">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R62">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L71">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O69:O70">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4975,7 +10752,7 @@
   <dimension ref="K4:X58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+      <selection activeCell="N38" sqref="N38:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5942,8 +11719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AR22" sqref="AR22:BR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="14.25"/>

--- a/仕様/项目1开发用.xlsx
+++ b/仕様/项目1开发用.xlsx
@@ -254,7 +254,81 @@
         </r>
       </text>
     </comment>
-    <comment ref="O61" authorId="0" shapeId="0">
+    <comment ref="J46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>当作生</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>产计划来用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检查预订日（</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>yyyymmdd</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>）</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>+ 12桁採番</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,6 +362,136 @@
           <t xml:space="preserve">保存
 1:OK
 9:NG
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Copy </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>0：待</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MingLiU"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">查
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>1：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>临时</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>保存
+2：完了
+9：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>删除</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -327,6 +531,136 @@
 1:OK
 9:NG
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q100" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>从 用</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>户</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>MS 可以取得生</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>产线信息</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J105" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>计划以外的检查发生时
+需要手动选择 模板编号 和生产线
+当然 也可以当成 根本没有生产计划
+每次根据 作番和CODE寻找 模版编号进行检查
+这样的话 也就是 系统记录的每天检查什么了 ， 但不会有应该检查什么的信息（这样的话 计划表 只需要 模板编号 作番 和CODE即可）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K105" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>计划的检查</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L105" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>可以</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="BatangChe"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>强制</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve"> OK 或者NG</t>
         </r>
       </text>
     </comment>
@@ -373,7 +707,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="411">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,10 +1327,6 @@
   </si>
   <si>
     <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1229,10 +1559,6 @@
   </si>
   <si>
     <t>chk_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chk_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1360,32 +1686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20190101_000000_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查予定仕様</t>
-    <rPh sb="2" eb="4">
-      <t>よてい</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>しよう</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_check_yotei_siyou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预订检查日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yotei_chk_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chk_method_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1586,10 +1886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查日：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1616,54 +1912,6 @@
   <si>
     <t>删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190101_000000_002</t>
-  </si>
-  <si>
-    <t>20190101_000000_003</t>
-  </si>
-  <si>
-    <t>20190101_000000_004</t>
-  </si>
-  <si>
-    <t>20190101_000000_005</t>
-  </si>
-  <si>
-    <t>20190101_000000_006</t>
-  </si>
-  <si>
-    <t>20190101_000000_007</t>
-  </si>
-  <si>
-    <t>20190101_000000_008</t>
-  </si>
-  <si>
-    <t>20190101_000000_009</t>
-  </si>
-  <si>
-    <t>20190101_000000_010</t>
-  </si>
-  <si>
-    <t>20190101_000000_011</t>
-  </si>
-  <si>
-    <t>20190101_000000_012</t>
-  </si>
-  <si>
-    <t>20190101_000000_013</t>
-  </si>
-  <si>
-    <t>20190101_000000_014</t>
-  </si>
-  <si>
-    <t>20190101_000000_015</t>
-  </si>
-  <si>
-    <t>20190101_000000_016</t>
-  </si>
-  <si>
-    <t>20190101_000000_017</t>
   </si>
   <si>
     <t>OK</t>
@@ -1692,10 +1940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继续检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产线</t>
   </si>
   <si>
@@ -1716,42 +1960,6 @@
   </si>
   <si>
     <t>SRM1316A</t>
-  </si>
-  <si>
-    <t>SRM1317A</t>
-  </si>
-  <si>
-    <t>SRM1318A</t>
-  </si>
-  <si>
-    <t>SRM1319A</t>
-  </si>
-  <si>
-    <t>SRM1320A</t>
-  </si>
-  <si>
-    <t>SRM1321A</t>
-  </si>
-  <si>
-    <t>SRM1322A</t>
-  </si>
-  <si>
-    <t>SRM1323A</t>
-  </si>
-  <si>
-    <t>SRM1324A</t>
-  </si>
-  <si>
-    <t>SRM1325A</t>
-  </si>
-  <si>
-    <t>SRM1326A</t>
-  </si>
-  <si>
-    <t>SRM1327A</t>
-  </si>
-  <si>
-    <t>SRM1328A</t>
   </si>
   <si>
     <t>状态</t>
@@ -1993,12 +2201,231 @@
     <t>NG：1， OK：1 ，全部：15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>查询全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询临时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询NG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父检查No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_chk_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是可以 用作番 和 code 和 模板的关系 登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊为了保持履历 ，所以只能新规 ，不能变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザーCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>めい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM1312A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者 （生产线：SRM1312A）</t>
+    <rPh sb="3" eb="4">
+      <t>しゃ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ﾅﾏ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机种CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查模板编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jz_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看出来有什么用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订检查日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yotei_chk_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101000000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chk_start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查開始日</t>
+    <rPh sb="2" eb="4">
+      <t>かいし</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ﾋ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便选择对应的模板  ，所以需要一个这样的表 可以看出不同模板的不同点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_check_plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划检查日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101000000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101000000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101000000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101000000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片保存路径固定规则：WebServer\IMG\文件名Jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="32">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2188,8 +2615,54 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="BatangChe"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MingLiU"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2256,8 +2729,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2590,21 +3069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2650,6 +3114,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2659,7 +3194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2744,342 +3279,401 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3249,7 +3843,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>997322</xdr:colOff>
+      <xdr:colOff>1142999</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>11211</xdr:rowOff>
     </xdr:to>
@@ -3260,8 +3854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11424392" y="4286252"/>
-          <a:ext cx="4067737" cy="1815358"/>
+          <a:off x="12072733" y="5715802"/>
+          <a:ext cx="4914582" cy="1964236"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst/>
@@ -4161,15 +4755,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>258534</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4178,8 +4772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12355285" y="26942142"/>
-          <a:ext cx="1292678" cy="381000"/>
+          <a:off x="12477750" y="24452036"/>
+          <a:ext cx="1428750" cy="476248"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -6515,21 +7109,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AS144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P90" sqref="P90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q84" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y126" sqref="Y126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="24"/>
-    <col min="3" max="3" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="24" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" style="24" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="24"/>
     <col min="9" max="9" width="12" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="17" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="24" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="24" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" style="24" customWidth="1"/>
@@ -6555,7 +7149,7 @@
     <col min="40" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:13">
       <c r="C3" s="23" t="s">
         <v>158</v>
       </c>
@@ -6563,7 +7157,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:13">
       <c r="C4" s="25" t="s">
         <v>134</v>
       </c>
@@ -6571,7 +7165,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:13">
       <c r="C5" s="19" t="s">
         <v>156</v>
       </c>
@@ -6582,7 +7176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:13">
       <c r="C6" s="19" t="s">
         <v>74</v>
       </c>
@@ -6593,13 +7187,16 @@
         <v>157</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
+        <v>192</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
       <c r="C7" s="19" t="s">
         <v>135</v>
       </c>
@@ -6613,7 +7210,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:13">
       <c r="C8" s="26" t="s">
         <v>75</v>
       </c>
@@ -6624,13 +7221,13 @@
         <v>5</v>
       </c>
       <c r="J8" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9" s="26" t="s">
         <v>76</v>
       </c>
@@ -6644,10 +7241,10 @@
         <v>159</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
       <c r="C10" s="26" t="s">
         <v>77</v>
       </c>
@@ -6658,13 +7255,13 @@
         <v>16</v>
       </c>
       <c r="J10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" ht="42.75">
+    </row>
+    <row r="11" spans="3:13" ht="42.75">
       <c r="C11" s="26" t="s">
         <v>78</v>
       </c>
@@ -6678,42 +7275,42 @@
         <v>113</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="3:25">
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S18" s="28"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131" t="s">
+        <v>220</v>
+      </c>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="S18" s="131"/>
       <c r="T18" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:25">
       <c r="J21" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="3:25">
       <c r="C22" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>134</v>
@@ -6727,10 +7324,10 @@
         <v>134</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>156</v>
@@ -6745,10 +7342,10 @@
         <v>153</v>
       </c>
       <c r="P23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="20" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="R23" s="19" t="s">
         <v>127</v>
@@ -6760,16 +7357,16 @@
         <v>146</v>
       </c>
       <c r="U23" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="V23" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="V23" s="20" t="s">
+      <c r="W23" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="W23" s="20" t="s">
-        <v>173</v>
-      </c>
       <c r="X23" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="3:25">
@@ -6786,7 +7383,7 @@
         <v>131</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>159</v>
@@ -6801,10 +7398,10 @@
         <v>157</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P24" s="20" t="s">
         <v>160</v>
@@ -6813,7 +7410,7 @@
         <v>161</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S24" s="19" t="s">
         <v>81</v>
@@ -6831,24 +7428,24 @@
         <v>162</v>
       </c>
       <c r="X24" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="3:25">
       <c r="C25" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="F25" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="G25" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>135</v>
@@ -6872,7 +7469,7 @@
         <v>151</v>
       </c>
       <c r="Q25" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R25" s="19" t="s">
         <v>135</v>
@@ -6884,13 +7481,13 @@
         <v>129</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V25" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X25" s="20" t="s">
         <v>151</v>
@@ -6915,34 +7512,34 @@
       <c r="J26" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="30" t="s">
+      <c r="M26" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30" t="s">
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30" t="s">
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="S26" s="30" t="s">
+      <c r="S26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="30" t="s">
+      <c r="T26" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30" t="s">
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6960,53 +7557,53 @@
         <v>138</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="N27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="Q27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S27" s="32" t="s">
+      <c r="S27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32">
+      <c r="T27" s="31"/>
+      <c r="U27" s="31">
         <v>2035</v>
       </c>
-      <c r="V27" s="32">
+      <c r="V27" s="31">
         <v>0.5</v>
       </c>
-      <c r="W27" s="32">
+      <c r="W27" s="31">
         <v>0.5</v>
       </c>
-      <c r="X27" s="33" t="s">
-        <v>177</v>
+      <c r="X27" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="Y27" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="3:25" ht="17.25" thickBot="1">
@@ -7014,16 +7611,16 @@
         <v>85</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>113</v>
@@ -7050,20 +7647,20 @@
         <v>9</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="3:25">
@@ -7076,47 +7673,47 @@
       <c r="E29" s="7">
         <v>2</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M29" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="N29" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="O29" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="P29" s="36" t="s">
+      <c r="P29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Q29" s="36" t="s">
+      <c r="Q29" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="R29" s="36" t="s">
+      <c r="R29" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="S29" s="36" t="s">
+      <c r="S29" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="T29" s="36" t="s">
+      <c r="T29" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36" t="s">
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7134,12 +7731,12 @@
         <v>133</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="37" t="s">
+      <c r="K30" s="36" t="s">
         <v>99</v>
       </c>
       <c r="L30" s="26" t="s">
@@ -7181,21 +7778,21 @@
         <v>148</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="36" t="s">
         <v>100</v>
       </c>
       <c r="L31" s="26" t="s">
@@ -7234,24 +7831,24 @@
     </row>
     <row r="32" spans="3:25">
       <c r="C32" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="36" t="s">
         <v>101</v>
       </c>
       <c r="L32" s="26" t="s">
@@ -7292,7 +7889,7 @@
       <c r="J33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="36" t="s">
         <v>102</v>
       </c>
       <c r="L33" s="26" t="s">
@@ -7330,14 +7927,14 @@
         <v>0.5</v>
       </c>
       <c r="X33" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="3:24">
       <c r="J34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="K34" s="36" t="s">
         <v>103</v>
       </c>
       <c r="L34" s="26" t="s">
@@ -7375,13 +7972,13 @@
       </c>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>139</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="37" t="s">
+      <c r="K35" s="36" t="s">
         <v>104</v>
       </c>
       <c r="L35" s="26" t="s">
@@ -7419,13 +8016,13 @@
       </c>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>140</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="K36" s="36" t="s">
         <v>105</v>
       </c>
       <c r="L36" s="26" t="s">
@@ -7458,7 +8055,7 @@
       <c r="J37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K37" s="36" t="s">
         <v>106</v>
       </c>
       <c r="L37" s="26" t="s">
@@ -7491,7 +8088,7 @@
       <c r="J38" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="K38" s="36" t="s">
         <v>107</v>
       </c>
       <c r="L38" s="26" t="s">
@@ -7532,7 +8129,7 @@
       <c r="J39" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K39" s="37" t="s">
+      <c r="K39" s="36" t="s">
         <v>108</v>
       </c>
       <c r="L39" s="26" t="s">
@@ -7573,7 +8170,7 @@
       <c r="J40" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K40" s="37" t="s">
+      <c r="K40" s="36" t="s">
         <v>109</v>
       </c>
       <c r="L40" s="26" t="s">
@@ -7605,7 +8202,7 @@
         <v>20</v>
       </c>
       <c r="X40" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="3:24">
@@ -7624,8 +8221,8 @@
       <c r="J41" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K41" s="37" t="s">
-        <v>186</v>
+      <c r="K41" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>78</v>
@@ -7729,15 +8326,22 @@
         <v>53</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>244</v>
+        <v>392</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>245</v>
+        <v>390</v>
       </c>
       <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
+      <c r="M46" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
+      <c r="P46" s="132" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="133"/>
     </row>
     <row r="47" spans="3:24">
       <c r="C47" s="26" t="s">
@@ -7783,11 +8387,14 @@
       <c r="M48" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="N48" s="17"/>
+      <c r="N48" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
-    </row>
-    <row r="49" spans="3:20">
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="3:24">
       <c r="C49" s="26" t="s">
         <v>40</v>
       </c>
@@ -7801,34 +8408,40 @@
         <v>60</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>221</v>
+        <v>391</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M49" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="N49" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="N49" s="19" t="s">
-        <v>209</v>
-      </c>
       <c r="O49" s="19" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="P49" s="19" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="R49" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="S49" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="T49" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="R49" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20">
+    </row>
+    <row r="50" spans="3:24">
       <c r="C50" s="26" t="s">
         <v>42</v>
       </c>
@@ -7842,101 +8455,117 @@
         <v>62</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>240</v>
+        <v>393</v>
       </c>
       <c r="K50" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q50" s="138" t="s">
+        <v>383</v>
+      </c>
+      <c r="R50" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="S50" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="T50" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24">
+      <c r="J51" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="L50" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="M50" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O50" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="P50" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q50" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="R50" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="3:20">
-      <c r="J51" s="19" t="s">
-        <v>202</v>
-      </c>
       <c r="K51" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M51" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="N51" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="N51" s="19" t="s">
-        <v>210</v>
-      </c>
       <c r="O51" s="19" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="Q51" s="19" t="s">
         <v>136</v>
       </c>
       <c r="R51" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="S51" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" spans="3:20">
-      <c r="J52" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>203</v>
+      <c r="T51" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24">
+      <c r="J52" s="21">
+        <v>1</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="L52" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="M52" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="N52" s="21">
+        <v>202</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="O52" s="21">
         <v>3</v>
       </c>
-      <c r="O52" s="12" t="s">
+      <c r="P52" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="P52" s="39">
+      <c r="Q52" s="38">
         <v>43468.423611111109</v>
       </c>
-      <c r="Q52" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="R52" s="39">
+      <c r="R52" s="26"/>
+      <c r="S52" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="T52" s="38">
         <v>43468.423611111109</v>
       </c>
     </row>
-    <row r="53" spans="3:20">
+    <row r="53" spans="3:24">
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="3:20">
+    <row r="54" spans="3:24">
       <c r="C54" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>154</v>
@@ -7947,9 +8576,15 @@
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="3:20">
+    <row r="55" spans="3:24">
       <c r="C55" s="25" t="s">
         <v>142</v>
+      </c>
+      <c r="D55" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -7957,12 +8592,15 @@
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="3:20">
+    <row r="56" spans="3:24">
       <c r="C56" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>153</v>
+      <c r="D56" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -7970,30 +8608,36 @@
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="3:20">
+    <row r="57" spans="3:24">
       <c r="C57" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="D57" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="3:20">
+    <row r="58" spans="3:24">
       <c r="C58" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>151</v>
+      <c r="D58" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>404</v>
       </c>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
@@ -8001,11 +8645,14 @@
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="3:20">
+    <row r="59" spans="3:24">
       <c r="C59" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" s="26" t="s">
         <v>150</v>
       </c>
       <c r="J59" s="18" t="s">
@@ -8018,109 +8665,136 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="3:20">
+    <row r="60" spans="3:24">
       <c r="C60" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="26" t="s">
         <v>67</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K60" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="R60" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="S60" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="T60" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="U60" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="V60" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="W60" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="X60" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24">
+      <c r="J61" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M61" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="L60" s="19" t="s">
+      <c r="N61" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="M60" s="19" t="s">
+      <c r="O61" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="P61" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="R61" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="S61" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="U61" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="V61" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="W61" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="X61" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24">
+      <c r="J62" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O62" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="N60" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="O60" s="19" t="s">
+      <c r="P62" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q62" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="P60" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q60" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="R60" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="S60" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="T60" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20">
-      <c r="J61" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="N61" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="O61" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="P61" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q61" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="R61" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="S61" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="T61" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20">
-      <c r="J62" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="M62" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="N62" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="O62" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="P62" s="19" t="s">
+      <c r="R62" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="Q62" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="R62" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="S62" s="19" t="s">
         <v>136</v>
@@ -8128,199 +8802,287 @@
       <c r="T62" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="3:20">
+      <c r="U62" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V62" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="W62" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="X62" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24">
+      <c r="C63" s="23" t="s">
+        <v>382</v>
+      </c>
       <c r="J63" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L63" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="M63" s="21">
+        <v>385</v>
+      </c>
+      <c r="K63" s="21">
+        <v>1</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="N63" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O63" s="21">
         <v>3</v>
       </c>
-      <c r="N63" s="12" t="s">
+      <c r="P63" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O63" s="26">
+      <c r="Q63" s="26">
         <v>0</v>
       </c>
-      <c r="P63" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q63" s="39">
+      <c r="R63" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="S63" s="38">
         <v>43468.423611111109</v>
       </c>
-      <c r="R63" s="26"/>
-      <c r="S63" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="T63" s="39">
+      <c r="T63" s="38">
         <v>43468.423611111109</v>
       </c>
-    </row>
-    <row r="64" spans="3:20">
+      <c r="U63" s="26"/>
+      <c r="V63" s="26"/>
+      <c r="W63" s="21">
+        <v>3003000</v>
+      </c>
+      <c r="X63" s="38">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24">
+      <c r="C64" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="10:22">
+    <row r="65" spans="3:22">
+      <c r="C65" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>372</v>
+      </c>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="10:22">
+    <row r="66" spans="3:22">
+      <c r="C66" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>371</v>
+      </c>
       <c r="J66" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="10:22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22">
+      <c r="C67" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22">
+      <c r="C68" s="134">
+        <v>3003000</v>
+      </c>
+      <c r="D68" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="E68" s="134" t="s">
+        <v>299</v>
+      </c>
       <c r="J68" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="10:22">
+    <row r="69" spans="3:22">
       <c r="J69" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K69" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="L69" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="N69" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P69" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="R69" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="T69" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22">
+      <c r="J70" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="R70" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L69" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="M69" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="N69" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="O69" s="19" t="s">
+      <c r="S70" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="T70" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" ht="17.25" thickBot="1">
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71"/>
+      <c r="F71" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="J71" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="K71" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="L71" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="P69" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q69" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="R69" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="S69" s="40" t="s">
+      <c r="M71" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="N71" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="O71" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="P71" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q71" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="T69" s="40" t="s">
+      <c r="R71" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="S71" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="T71" s="81" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="10:22">
-      <c r="J70" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K70" s="19" t="s">
+    <row r="72" spans="3:22">
+      <c r="C72" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="J72" s="142" t="s">
+        <v>385</v>
+      </c>
+      <c r="K72" s="139" t="s">
         <v>253</v>
       </c>
-      <c r="L70" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="O70" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="P70" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q70" s="40" t="s">
+      <c r="L72" s="31">
+        <v>0</v>
+      </c>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="R70" s="40" t="s">
+    </row>
+    <row r="73" spans="3:22">
+      <c r="C73" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J73" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K73" s="140" t="s">
         <v>255</v>
-      </c>
-      <c r="S70" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="T70" s="40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="10:22" ht="17.25" thickBot="1">
-      <c r="J71" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="K71" s="90" t="s">
-        <v>257</v>
-      </c>
-      <c r="L71" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="M71" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="N71" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="O71" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="P71" s="90" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q71" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="R71" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="S71" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="T71" s="91" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="10:22">
-      <c r="J72" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="K72" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="L72" s="32">
-        <v>0</v>
-      </c>
-      <c r="M72" s="83"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="83"/>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="83"/>
-      <c r="S72" s="83"/>
-      <c r="T72" s="92" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="10:22">
-      <c r="J73" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K73" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="L73" s="26">
         <v>0</v>
@@ -8338,16 +9100,22 @@
       <c r="S73" s="22">
         <v>0.5</v>
       </c>
-      <c r="T73" s="93" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="10:22">
-      <c r="J74" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K74" s="22" t="s">
-        <v>263</v>
+      <c r="T73" s="83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="3:22">
+      <c r="C74" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J74" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K74" s="140" t="s">
+        <v>256</v>
       </c>
       <c r="L74" s="26">
         <v>0</v>
@@ -8359,16 +9127,22 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
-      <c r="T74" s="93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="10:22">
-      <c r="J75" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K75" s="22" t="s">
-        <v>264</v>
+      <c r="T74" s="83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="3:22">
+      <c r="C75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J75" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K75" s="140" t="s">
+        <v>257</v>
       </c>
       <c r="L75" s="26">
         <v>0</v>
@@ -8380,16 +9154,22 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="22"/>
-      <c r="T75" s="93" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="10:22">
-      <c r="J76" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K76" s="22" t="s">
-        <v>266</v>
+      <c r="T75" s="83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="3:22">
+      <c r="C76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J76" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K76" s="140" t="s">
+        <v>259</v>
       </c>
       <c r="L76" s="26">
         <v>0</v>
@@ -8401,16 +9181,16 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
-      <c r="T76" s="93" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="10:22">
-      <c r="J77" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K77" s="22" t="s">
-        <v>268</v>
+      <c r="T76" s="83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="3:22">
+      <c r="J77" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K77" s="140" t="s">
+        <v>261</v>
       </c>
       <c r="L77" s="26">
         <v>0</v>
@@ -8422,16 +9202,16 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="22"/>
-      <c r="T77" s="93" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="10:22">
-      <c r="J78" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K78" s="22" t="s">
-        <v>270</v>
+      <c r="T77" s="83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="3:22">
+      <c r="J78" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K78" s="140" t="s">
+        <v>263</v>
       </c>
       <c r="L78" s="26">
         <v>0</v>
@@ -8443,16 +9223,16 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
-      <c r="T78" s="93" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="10:22">
-      <c r="J79" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K79" s="22" t="s">
-        <v>272</v>
+      <c r="T78" s="83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="3:22">
+      <c r="J79" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K79" s="140" t="s">
+        <v>265</v>
       </c>
       <c r="L79" s="26">
         <v>0</v>
@@ -8470,16 +9250,16 @@
       <c r="S79" s="22">
         <v>0.5</v>
       </c>
-      <c r="T79" s="93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="10:22">
-      <c r="J80" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K80" s="22" t="s">
-        <v>273</v>
+      <c r="T79" s="83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="3:22">
+      <c r="J80" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K80" s="140" t="s">
+        <v>266</v>
       </c>
       <c r="L80" s="26">
         <v>0</v>
@@ -8491,19 +9271,19 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
-      <c r="T80" s="93" t="s">
-        <v>274</v>
+      <c r="T80" s="83" t="s">
+        <v>267</v>
       </c>
       <c r="V80" s="24" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="10:22">
-      <c r="J81" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K81" s="22" t="s">
-        <v>275</v>
+      <c r="J81" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K81" s="140" t="s">
+        <v>268</v>
       </c>
       <c r="L81" s="26">
         <v>0</v>
@@ -8515,16 +9295,16 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="22"/>
-      <c r="T81" s="93" t="s">
-        <v>276</v>
+      <c r="T81" s="83" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="10:22">
-      <c r="J82" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K82" s="22" t="s">
-        <v>277</v>
+      <c r="J82" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K82" s="140" t="s">
+        <v>270</v>
       </c>
       <c r="L82" s="26">
         <v>0</v>
@@ -8536,16 +9316,16 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="22"/>
-      <c r="T82" s="93" t="s">
+      <c r="T82" s="83" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" spans="10:22">
-      <c r="J83" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K83" s="22" t="s">
-        <v>278</v>
+      <c r="J83" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K83" s="140" t="s">
+        <v>271</v>
       </c>
       <c r="L83" s="26">
         <v>0</v>
@@ -8557,16 +9337,16 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
-      <c r="T83" s="93" t="s">
-        <v>279</v>
+      <c r="T83" s="83" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="10:22">
-      <c r="J84" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K84" s="22" t="s">
-        <v>280</v>
+      <c r="J84" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K84" s="140" t="s">
+        <v>273</v>
       </c>
       <c r="L84" s="26">
         <v>0</v>
@@ -8580,16 +9360,16 @@
       </c>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
-      <c r="T84" s="93" t="s">
+      <c r="T84" s="83" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="85" spans="10:22">
-      <c r="J85" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K85" s="22" t="s">
-        <v>281</v>
+      <c r="J85" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K85" s="140" t="s">
+        <v>274</v>
       </c>
       <c r="L85" s="26">
         <v>0</v>
@@ -8603,16 +9383,16 @@
       </c>
       <c r="R85" s="22"/>
       <c r="S85" s="22"/>
-      <c r="T85" s="93" t="s">
+      <c r="T85" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86" spans="10:22">
-      <c r="J86" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K86" s="22" t="s">
-        <v>282</v>
+      <c r="J86" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K86" s="140" t="s">
+        <v>275</v>
       </c>
       <c r="L86" s="26">
         <v>0</v>
@@ -8630,91 +9410,91 @@
       <c r="S86" s="22">
         <v>20</v>
       </c>
-      <c r="T86" s="93" t="s">
-        <v>179</v>
+      <c r="T86" s="83" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="10:22" ht="17.25" thickBot="1">
-      <c r="J87" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="K87" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="L87" s="88">
+      <c r="J87" s="144" t="s">
+        <v>385</v>
+      </c>
+      <c r="K87" s="141" t="s">
+        <v>276</v>
+      </c>
+      <c r="L87" s="78">
         <v>0</v>
       </c>
-      <c r="M87" s="86"/>
-      <c r="N87" s="86"/>
-      <c r="O87" s="88"/>
-      <c r="P87" s="86"/>
-      <c r="Q87" s="86"/>
-      <c r="R87" s="86"/>
-      <c r="S87" s="86"/>
-      <c r="T87" s="94" t="s">
-        <v>284</v>
+      <c r="M87" s="76"/>
+      <c r="N87" s="76"/>
+      <c r="O87" s="78"/>
+      <c r="P87" s="76"/>
+      <c r="Q87" s="76"/>
+      <c r="R87" s="76"/>
+      <c r="S87" s="76"/>
+      <c r="T87" s="84" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="10:22">
-      <c r="J88" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="K88" s="83" t="s">
-        <v>367</v>
-      </c>
-      <c r="L88" s="84">
+      <c r="J88" s="142" t="s">
+        <v>385</v>
+      </c>
+      <c r="K88" s="139" t="s">
+        <v>330</v>
+      </c>
+      <c r="L88" s="74">
         <v>1</v>
       </c>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="33"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="R88" s="31"/>
+      <c r="S88" s="31"/>
+      <c r="T88" s="32"/>
     </row>
     <row r="89" spans="10:22">
-      <c r="J89" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K89" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="L89" s="82">
+      <c r="J89" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K89" s="140" t="s">
+        <v>331</v>
+      </c>
+      <c r="L89" s="72">
         <v>1</v>
       </c>
       <c r="M89" s="26"/>
       <c r="N89" s="26"/>
       <c r="O89" s="26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="P89" s="26"/>
-      <c r="Q89" s="59" t="s">
+      <c r="Q89" s="85" t="s">
         <v>35</v>
       </c>
       <c r="R89" s="26"/>
       <c r="S89" s="26"/>
-      <c r="T89" s="85"/>
+      <c r="T89" s="75"/>
     </row>
     <row r="90" spans="10:22">
-      <c r="J90" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K90" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="L90" s="82">
+      <c r="J90" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K90" s="140" t="s">
+        <v>332</v>
+      </c>
+      <c r="L90" s="72">
         <v>1</v>
       </c>
       <c r="M90" s="26"/>
       <c r="N90" s="26"/>
       <c r="O90" s="26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="P90" s="26"/>
       <c r="Q90" s="22" t="s">
@@ -8722,22 +9502,22 @@
       </c>
       <c r="R90" s="26"/>
       <c r="S90" s="26"/>
-      <c r="T90" s="85"/>
+      <c r="T90" s="75"/>
     </row>
     <row r="91" spans="10:22">
-      <c r="J91" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K91" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="L91" s="82">
+      <c r="J91" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K91" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="L91" s="72">
         <v>1</v>
       </c>
       <c r="M91" s="26"/>
       <c r="N91" s="26"/>
       <c r="O91" s="26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="P91" s="26"/>
       <c r="Q91" s="22" t="s">
@@ -8745,25 +9525,25 @@
       </c>
       <c r="R91" s="26"/>
       <c r="S91" s="26"/>
-      <c r="T91" s="85"/>
+      <c r="T91" s="75"/>
       <c r="V91" s="24" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="10:22">
-      <c r="J92" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K92" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="L92" s="82">
+      <c r="J92" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K92" s="140" t="s">
+        <v>334</v>
+      </c>
+      <c r="L92" s="72">
         <v>1</v>
       </c>
       <c r="M92" s="26"/>
       <c r="N92" s="26"/>
       <c r="O92" s="26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="P92" s="26"/>
       <c r="Q92" s="22" t="s">
@@ -8771,22 +9551,22 @@
       </c>
       <c r="R92" s="26"/>
       <c r="S92" s="26"/>
-      <c r="T92" s="85"/>
+      <c r="T92" s="75"/>
     </row>
     <row r="93" spans="10:22">
-      <c r="J93" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="K93" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="L93" s="82">
+      <c r="J93" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="K93" s="140" t="s">
+        <v>335</v>
+      </c>
+      <c r="L93" s="72">
         <v>1</v>
       </c>
       <c r="M93" s="26"/>
       <c r="N93" s="26"/>
       <c r="O93" s="26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="P93" s="26"/>
       <c r="Q93" s="22" t="s">
@@ -8794,175 +9574,175 @@
       </c>
       <c r="R93" s="26"/>
       <c r="S93" s="26"/>
-      <c r="T93" s="85"/>
+      <c r="T93" s="75"/>
     </row>
     <row r="94" spans="10:22" ht="17.25" thickBot="1">
-      <c r="J94" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="K94" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="L94" s="87">
+      <c r="J94" s="144" t="s">
+        <v>385</v>
+      </c>
+      <c r="K94" s="141" t="s">
+        <v>336</v>
+      </c>
+      <c r="L94" s="77">
         <v>1</v>
       </c>
-      <c r="M94" s="88"/>
-      <c r="N94" s="88"/>
-      <c r="O94" s="88" t="s">
-        <v>320</v>
-      </c>
-      <c r="P94" s="88"/>
-      <c r="Q94" s="86" t="s">
+      <c r="M94" s="78"/>
+      <c r="N94" s="78"/>
+      <c r="O94" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="P94" s="78"/>
+      <c r="Q94" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="R94" s="88"/>
-      <c r="S94" s="88"/>
-      <c r="T94" s="89"/>
+      <c r="R94" s="78"/>
+      <c r="S94" s="78"/>
+      <c r="T94" s="79"/>
     </row>
     <row r="97" spans="9:45" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="98" spans="9:45" ht="57" customHeight="1" thickBot="1">
-      <c r="I98" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="J98" s="47"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="48"/>
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
-      <c r="Q98" s="48"/>
-      <c r="R98" s="49"/>
-      <c r="T98" s="72" t="s">
+      <c r="I98" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="J98" s="46"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="N98" s="47"/>
+      <c r="O98" s="47"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="48"/>
+      <c r="T98" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="U98" s="46"/>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
+      <c r="X98" s="47"/>
+      <c r="Y98" s="47"/>
+      <c r="Z98" s="47"/>
+      <c r="AA98" s="48"/>
+      <c r="AC98" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD98" s="46"/>
+      <c r="AE98" s="47"/>
+      <c r="AF98" s="47"/>
+      <c r="AG98" s="47"/>
+      <c r="AH98" s="47"/>
+      <c r="AI98" s="47"/>
+      <c r="AJ98" s="47"/>
+      <c r="AK98" s="47"/>
+      <c r="AL98" s="47"/>
+      <c r="AM98" s="47"/>
+      <c r="AN98" s="103"/>
+    </row>
+    <row r="99" spans="9:45" ht="24" customHeight="1" thickBot="1">
+      <c r="I99" s="101"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="52"/>
+      <c r="T99" s="101"/>
+      <c r="U99" s="50"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="51"/>
+      <c r="X99" s="51"/>
+      <c r="Y99" s="111" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z99" s="112"/>
+      <c r="AA99" s="52"/>
+      <c r="AC99" s="101"/>
+      <c r="AD99" s="50"/>
+      <c r="AE99" s="51"/>
+      <c r="AF99" s="51"/>
+      <c r="AG99" s="51"/>
+      <c r="AH99" s="111" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI99" s="112"/>
+      <c r="AJ99" s="61"/>
+      <c r="AK99" s="102" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL99" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM99" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="U98" s="47"/>
-      <c r="V98" s="48"/>
-      <c r="W98" s="48"/>
-      <c r="X98" s="48"/>
-      <c r="Y98" s="48"/>
-      <c r="Z98" s="48"/>
-      <c r="AA98" s="49"/>
-      <c r="AC98" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD98" s="47"/>
-      <c r="AE98" s="48"/>
-      <c r="AF98" s="48"/>
-      <c r="AG98" s="48"/>
-      <c r="AH98" s="48"/>
-      <c r="AI98" s="48"/>
-      <c r="AJ98" s="48"/>
-      <c r="AK98" s="48"/>
-      <c r="AL98" s="48"/>
-      <c r="AM98" s="48"/>
-      <c r="AN98" s="132"/>
-    </row>
-    <row r="99" spans="9:45" ht="24" customHeight="1" thickBot="1">
-      <c r="I99" s="130"/>
-      <c r="J99" s="51"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="52"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="53"/>
-      <c r="T99" s="130"/>
-      <c r="U99" s="51"/>
-      <c r="V99" s="52"/>
-      <c r="W99" s="52"/>
-      <c r="X99" s="52"/>
-      <c r="Y99" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z99" s="79"/>
-      <c r="AA99" s="53"/>
-      <c r="AC99" s="130"/>
-      <c r="AD99" s="51"/>
-      <c r="AE99" s="52"/>
-      <c r="AF99" s="52"/>
-      <c r="AG99" s="52"/>
-      <c r="AH99" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="AI99" s="79"/>
-      <c r="AJ99" s="64"/>
-      <c r="AK99" s="131" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL99" s="131" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM99" s="131" t="s">
-        <v>392</v>
-      </c>
-      <c r="AN99" s="74"/>
+      <c r="AN99" s="67"/>
     </row>
     <row r="100" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I100" s="73"/>
-      <c r="J100" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="K100" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="L100" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="M100" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="N100" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="O100" s="76">
+      <c r="I100" s="66"/>
+      <c r="J100" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="K100" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="L100" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="M100" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="N100" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="O100" s="69">
         <v>3003000</v>
       </c>
-      <c r="P100" s="51" t="s">
+      <c r="P100" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q100" s="50"/>
+      <c r="R100" s="67"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="66"/>
+      <c r="U100" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="V100" s="62"/>
+      <c r="W100" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="X100" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y100" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="Q100" s="51"/>
-      <c r="R100" s="74"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="73"/>
-      <c r="U100" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="V100" s="65"/>
-      <c r="W100" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="X100" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y100" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z100" s="64"/>
-      <c r="AA100" s="74"/>
+      <c r="Z100" s="61"/>
+      <c r="AA100" s="67"/>
       <c r="AB100" s="17"/>
-      <c r="AC100" s="73"/>
-      <c r="AD100" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE100" s="65"/>
-      <c r="AF100" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG100" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH100" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI100" s="64"/>
-      <c r="AJ100" s="64"/>
-      <c r="AK100" s="64"/>
-      <c r="AL100" s="64"/>
-      <c r="AM100" s="64"/>
-      <c r="AN100" s="74"/>
+      <c r="AC100" s="66"/>
+      <c r="AD100" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE100" s="62"/>
+      <c r="AF100" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG100" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH100" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI100" s="61"/>
+      <c r="AJ100" s="61"/>
+      <c r="AK100" s="61"/>
+      <c r="AL100" s="61"/>
+      <c r="AM100" s="61"/>
+      <c r="AN100" s="67"/>
       <c r="AO100" s="17"/>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="17"/>
@@ -8970,38 +9750,38 @@
       <c r="AS100" s="17"/>
     </row>
     <row r="101" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I101" s="73"/>
-      <c r="J101" s="51"/>
-      <c r="K101" s="51"/>
-      <c r="L101" s="51"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="51"/>
-      <c r="O101" s="51"/>
-      <c r="P101" s="51"/>
-      <c r="Q101" s="51"/>
-      <c r="R101" s="74"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="50"/>
+      <c r="N101" s="50"/>
+      <c r="O101" s="50"/>
+      <c r="P101" s="50"/>
+      <c r="Q101" s="50"/>
+      <c r="R101" s="67"/>
       <c r="S101" s="17"/>
-      <c r="T101" s="73"/>
-      <c r="U101" s="51"/>
-      <c r="V101" s="51"/>
-      <c r="W101" s="51"/>
-      <c r="X101" s="51"/>
-      <c r="Y101" s="51"/>
-      <c r="Z101" s="51"/>
-      <c r="AA101" s="74"/>
+      <c r="T101" s="66"/>
+      <c r="U101" s="50"/>
+      <c r="V101" s="50"/>
+      <c r="W101" s="50"/>
+      <c r="X101" s="50"/>
+      <c r="Y101" s="50"/>
+      <c r="Z101" s="50"/>
+      <c r="AA101" s="67"/>
       <c r="AB101" s="17"/>
-      <c r="AC101" s="73"/>
-      <c r="AD101" s="51"/>
-      <c r="AE101" s="51"/>
-      <c r="AF101" s="51"/>
-      <c r="AG101" s="51"/>
-      <c r="AH101" s="51"/>
-      <c r="AI101" s="51"/>
-      <c r="AJ101" s="64"/>
-      <c r="AK101" s="64"/>
-      <c r="AL101" s="64"/>
-      <c r="AM101" s="64"/>
-      <c r="AN101" s="74"/>
+      <c r="AC101" s="66"/>
+      <c r="AD101" s="50"/>
+      <c r="AE101" s="50"/>
+      <c r="AF101" s="50"/>
+      <c r="AG101" s="50"/>
+      <c r="AH101" s="50"/>
+      <c r="AI101" s="50"/>
+      <c r="AJ101" s="61"/>
+      <c r="AK101" s="61"/>
+      <c r="AL101" s="61"/>
+      <c r="AM101" s="61"/>
+      <c r="AN101" s="67"/>
       <c r="AO101" s="17"/>
       <c r="AP101" s="17"/>
       <c r="AQ101" s="17"/>
@@ -9009,46 +9789,52 @@
       <c r="AS101" s="17"/>
     </row>
     <row r="102" spans="9:45" ht="18" thickBot="1">
-      <c r="I102" s="73"/>
-      <c r="J102" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="K102" s="42"/>
-      <c r="L102" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
-      <c r="O102" s="51"/>
-      <c r="P102" s="51"/>
-      <c r="Q102" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="R102" s="74"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="K102" s="41"/>
+      <c r="L102" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="M102" s="50"/>
+      <c r="N102" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="O102" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="P102" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q102" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="R102" s="67"/>
       <c r="S102" s="17"/>
-      <c r="T102" s="73"/>
-      <c r="U102" s="134" t="s">
-        <v>393</v>
-      </c>
-      <c r="V102" s="133"/>
-      <c r="W102" s="51"/>
-      <c r="X102" s="51"/>
-      <c r="AA102" s="74"/>
+      <c r="T102" s="66"/>
+      <c r="U102" s="105" t="s">
+        <v>356</v>
+      </c>
+      <c r="V102" s="104"/>
+      <c r="W102" s="50"/>
+      <c r="X102" s="50"/>
+      <c r="AA102" s="67"/>
       <c r="AB102" s="17"/>
-      <c r="AC102" s="73"/>
-      <c r="AD102" s="51"/>
-      <c r="AE102" s="51"/>
-      <c r="AF102" s="51"/>
-      <c r="AG102" s="51"/>
-      <c r="AH102" s="52"/>
-      <c r="AI102" s="52"/>
-      <c r="AJ102" s="64"/>
-      <c r="AK102" s="64"/>
-      <c r="AL102" s="64"/>
-      <c r="AM102" s="137" t="s">
-        <v>396</v>
-      </c>
-      <c r="AN102" s="74"/>
+      <c r="AC102" s="66"/>
+      <c r="AD102" s="50"/>
+      <c r="AE102" s="50"/>
+      <c r="AF102" s="50"/>
+      <c r="AG102" s="50"/>
+      <c r="AH102" s="51"/>
+      <c r="AI102" s="51"/>
+      <c r="AJ102" s="61"/>
+      <c r="AK102" s="61"/>
+      <c r="AL102" s="61"/>
+      <c r="AM102" s="108" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN102" s="67"/>
       <c r="AO102" s="17"/>
       <c r="AP102" s="17"/>
       <c r="AQ102" s="17"/>
@@ -9056,1601 +9842,1437 @@
       <c r="AS102" s="17"/>
     </row>
     <row r="103" spans="9:45" ht="16.5" customHeight="1">
-      <c r="I103" s="73"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="74"/>
+      <c r="I103" s="66"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="50"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="50"/>
+      <c r="P103" s="50"/>
+      <c r="Q103" s="50"/>
+      <c r="R103" s="67"/>
       <c r="S103" s="17"/>
-      <c r="T103" s="73"/>
-      <c r="Z103" s="51"/>
-      <c r="AA103" s="74"/>
+      <c r="T103" s="66"/>
+      <c r="Z103" s="50"/>
+      <c r="AA103" s="67"/>
       <c r="AB103" s="17"/>
-      <c r="AC103" s="73"/>
-      <c r="AD103" s="46" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE103" s="46" t="s">
+      <c r="AC103" s="66"/>
+      <c r="AD103" s="126" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE103" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="AF103" s="112" t="s">
+      <c r="AF103" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="AG103" s="46" t="s">
+      <c r="AG103" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AH103" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI103" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ103" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="AK103" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL103" s="46"/>
-      <c r="AM103" s="46"/>
-      <c r="AN103" s="74"/>
+      <c r="AH103" s="126" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI103" s="126" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ103" s="126" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK103" s="126" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL103" s="126"/>
+      <c r="AM103" s="126"/>
+      <c r="AN103" s="67"/>
       <c r="AO103" s="17"/>
       <c r="AQ103" s="17"/>
       <c r="AR103" s="17"/>
       <c r="AS103" s="17"/>
     </row>
     <row r="104" spans="9:45" ht="18.75" thickBot="1">
-      <c r="I104" s="73"/>
-      <c r="J104" s="75"/>
-      <c r="K104" s="75"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
-      <c r="O104" s="75"/>
-      <c r="P104" s="75"/>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="74"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="68"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="67"/>
       <c r="S104" s="17"/>
-      <c r="T104" s="73"/>
-      <c r="U104" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="V104" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="W104" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="X104" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y104" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z104" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA104" s="74"/>
+      <c r="T104" s="66"/>
+      <c r="U104" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="V104" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="W104" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="X104" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y104" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z104" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA104" s="67"/>
       <c r="AB104" s="17"/>
-      <c r="AC104" s="73"/>
-      <c r="AD104" s="46"/>
-      <c r="AE104" s="46"/>
-      <c r="AF104" s="112"/>
-      <c r="AG104" s="46"/>
-      <c r="AH104" s="46"/>
-      <c r="AI104" s="109"/>
-      <c r="AJ104" s="109"/>
-      <c r="AK104" s="109"/>
-      <c r="AL104" s="109"/>
-      <c r="AM104" s="109"/>
-      <c r="AN104" s="74"/>
+      <c r="AC104" s="66"/>
+      <c r="AD104" s="126"/>
+      <c r="AE104" s="126"/>
+      <c r="AF104" s="125"/>
+      <c r="AG104" s="126"/>
+      <c r="AH104" s="126"/>
+      <c r="AI104" s="127"/>
+      <c r="AJ104" s="127"/>
+      <c r="AK104" s="127"/>
+      <c r="AL104" s="127"/>
+      <c r="AM104" s="127"/>
+      <c r="AN104" s="67"/>
       <c r="AO104" s="17"/>
       <c r="AQ104" s="17"/>
       <c r="AR104" s="17"/>
       <c r="AS104" s="17"/>
     </row>
     <row r="105" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I105" s="73"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="L105" s="51"/>
-      <c r="M105" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="N105" s="51"/>
-      <c r="O105" s="43" t="s">
+      <c r="I105" s="66"/>
+      <c r="J105" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K105" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="L105" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="M105" s="50"/>
+      <c r="N105" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O105" s="50"/>
+      <c r="P105" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="R105" s="67"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="66"/>
+      <c r="U105" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="V105" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="P105" s="51"/>
-      <c r="Q105" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="R105" s="74"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="73"/>
-      <c r="U105" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="V105" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="W105" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="X105" s="66" t="s">
-        <v>351</v>
+      <c r="W105" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="X105" s="63" t="s">
+        <v>314</v>
       </c>
       <c r="Y105" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z105" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA105" s="74"/>
+        <v>311</v>
+      </c>
+      <c r="Z105" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA105" s="67"/>
       <c r="AB105" s="17"/>
-      <c r="AC105" s="73"/>
-      <c r="AD105" s="110" t="s">
+      <c r="AC105" s="66"/>
+      <c r="AD105" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="AE105" s="110" t="s">
+      <c r="AE105" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AF105" s="110"/>
-      <c r="AG105" s="110" t="s">
+      <c r="AF105" s="96"/>
+      <c r="AG105" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AH105" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI105" s="113" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ105" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="AK105" s="122" t="s">
-        <v>380</v>
-      </c>
-      <c r="AL105" s="123"/>
-      <c r="AM105" s="124"/>
-      <c r="AN105" s="74"/>
+      <c r="AH105" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI105" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ105" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK105" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL105" s="129"/>
+      <c r="AM105" s="130"/>
+      <c r="AN105" s="67"/>
       <c r="AO105" s="17"/>
       <c r="AQ105" s="17"/>
       <c r="AR105" s="17"/>
       <c r="AS105" s="17"/>
     </row>
     <row r="106" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I106" s="73"/>
-      <c r="J106" s="51"/>
-      <c r="K106" s="51"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
-      <c r="O106" s="51"/>
-      <c r="P106" s="51"/>
-      <c r="Q106" s="51"/>
-      <c r="R106" s="74"/>
+      <c r="I106" s="66"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="50"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="50"/>
+      <c r="P106" s="50"/>
+      <c r="Q106" s="50"/>
+      <c r="R106" s="67"/>
       <c r="S106" s="17"/>
-      <c r="T106" s="73"/>
-      <c r="U106" s="59" t="s">
+      <c r="T106" s="66"/>
+      <c r="U106" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="V106" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="W106" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="X106" s="80" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y106" s="59" t="s">
+      <c r="V106" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="W106" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="X106" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y106" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="Z106" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA106" s="74"/>
+      <c r="Z106" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA106" s="67"/>
       <c r="AB106" s="17"/>
-      <c r="AC106" s="73"/>
-      <c r="AD106" s="106" t="s">
+      <c r="AC106" s="66"/>
+      <c r="AD106" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AE106" s="96" t="s">
+      <c r="AE106" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AF106" s="96" t="s">
+      <c r="AF106" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AG106" s="96" t="s">
+      <c r="AG106" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="AH106" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI106" s="113">
+      <c r="AH106" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI106" s="98">
         <v>2305.1</v>
       </c>
-      <c r="AJ106" s="102" t="s">
-        <v>319</v>
-      </c>
-      <c r="AK106" s="119"/>
-      <c r="AL106" s="120"/>
-      <c r="AM106" s="121"/>
-      <c r="AN106" s="74"/>
+      <c r="AJ106" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK106" s="113"/>
+      <c r="AL106" s="114"/>
+      <c r="AM106" s="115"/>
+      <c r="AN106" s="67"/>
       <c r="AO106" s="17"/>
       <c r="AQ106" s="17"/>
       <c r="AR106" s="17"/>
       <c r="AS106" s="17"/>
     </row>
     <row r="107" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I107" s="50"/>
-      <c r="J107" s="52"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="52"/>
-      <c r="N107" s="52"/>
-      <c r="O107" s="52"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="52"/>
-      <c r="R107" s="53"/>
-      <c r="T107" s="50"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="52"/>
+      <c r="T107" s="49"/>
       <c r="U107" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="V107" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="W107" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="X107" s="67" t="s">
+      <c r="V107" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="W107" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="X107" s="64" t="s">
         <v>52</v>
       </c>
       <c r="Y107" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Z107" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA107" s="53"/>
-      <c r="AC107" s="50"/>
-      <c r="AD107" s="107"/>
-      <c r="AE107" s="97" t="s">
+      <c r="Z107" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA107" s="52"/>
+      <c r="AC107" s="49"/>
+      <c r="AD107" s="123"/>
+      <c r="AE107" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="AF107" s="97" t="s">
+      <c r="AF107" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="AG107" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH107" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI107" s="113">
+      <c r="AG107" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH107" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI107" s="98">
         <v>2035.2</v>
       </c>
-      <c r="AJ107" s="105"/>
-      <c r="AK107" s="119"/>
-      <c r="AL107" s="120"/>
-      <c r="AM107" s="121"/>
-      <c r="AN107" s="53"/>
+      <c r="AJ107" s="95"/>
+      <c r="AK107" s="113"/>
+      <c r="AL107" s="114"/>
+      <c r="AM107" s="115"/>
+      <c r="AN107" s="52"/>
     </row>
     <row r="108" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I108" s="50"/>
-      <c r="J108" s="51"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="51"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="51"/>
-      <c r="O108" s="51"/>
-      <c r="P108" s="51"/>
-      <c r="Q108" s="51"/>
-      <c r="R108" s="53"/>
-      <c r="T108" s="50"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="50"/>
+      <c r="Q108" s="50"/>
+      <c r="R108" s="52"/>
+      <c r="T108" s="49"/>
       <c r="U108" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="V108" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="W108" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="X108" s="66" t="s">
+      <c r="V108" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="W108" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="X108" s="63" t="s">
         <v>54</v>
       </c>
       <c r="Y108" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Z108" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA108" s="53"/>
-      <c r="AC108" s="50"/>
-      <c r="AD108" s="107"/>
-      <c r="AE108" s="96" t="s">
+      <c r="Z108" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA108" s="52"/>
+      <c r="AC108" s="49"/>
+      <c r="AD108" s="123"/>
+      <c r="AE108" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AF108" s="96" t="s">
+      <c r="AF108" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="AG108" s="96" t="s">
+      <c r="AG108" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AH108" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI108" s="100"/>
-      <c r="AJ108" s="101"/>
-      <c r="AK108" s="119"/>
-      <c r="AL108" s="120"/>
-      <c r="AM108" s="121"/>
-      <c r="AN108" s="53"/>
+      <c r="AH108" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI108" s="90"/>
+      <c r="AJ108" s="91"/>
+      <c r="AK108" s="113"/>
+      <c r="AL108" s="114"/>
+      <c r="AM108" s="115"/>
+      <c r="AN108" s="52"/>
     </row>
     <row r="109" spans="9:45" ht="18.75" thickBot="1">
-      <c r="I109" s="50"/>
-      <c r="J109" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="K109" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="45" t="s">
-        <v>299</v>
+      <c r="I109" s="49"/>
+      <c r="J109" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="K109" s="145" t="s">
+        <v>193</v>
+      </c>
+      <c r="L109" s="146"/>
+      <c r="M109" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="N109" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="O109" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="P109" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q109" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="R109" s="53"/>
-      <c r="T109" s="50"/>
+        <v>394</v>
+      </c>
+      <c r="P109" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q109" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="R109" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="T109" s="49"/>
       <c r="U109" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="V109" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="W109" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="X109" s="66" t="s">
+      <c r="V109" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="W109" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="X109" s="63" t="s">
         <v>56</v>
       </c>
       <c r="Y109" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Z109" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA109" s="53"/>
-      <c r="AC109" s="50"/>
-      <c r="AD109" s="107"/>
-      <c r="AE109" s="96" t="s">
+      <c r="Z109" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA109" s="52"/>
+      <c r="AC109" s="49"/>
+      <c r="AD109" s="123"/>
+      <c r="AE109" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AF109" s="96" t="s">
+      <c r="AF109" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AG109" s="96" t="s">
+      <c r="AG109" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AH109" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI109" s="100"/>
-      <c r="AJ109" s="101"/>
-      <c r="AK109" s="119"/>
-      <c r="AL109" s="120"/>
-      <c r="AM109" s="121"/>
-      <c r="AN109" s="53"/>
+      <c r="AH109" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI109" s="90"/>
+      <c r="AJ109" s="91"/>
+      <c r="AK109" s="113"/>
+      <c r="AL109" s="114"/>
+      <c r="AM109" s="115"/>
+      <c r="AN109" s="52"/>
     </row>
     <row r="110" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I110" s="50"/>
+      <c r="I110" s="49"/>
       <c r="J110" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="K110" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L110" s="58"/>
-      <c r="M110" s="58"/>
-      <c r="N110" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O110" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="P110" s="39">
+        <v>385</v>
+      </c>
+      <c r="K110" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="L110" s="63"/>
+      <c r="M110" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N110" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="O110" s="38">
         <v>43468</v>
       </c>
+      <c r="P110" s="38">
+        <v>43468</v>
+      </c>
       <c r="Q110" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="R110" s="53"/>
-      <c r="T110" s="50"/>
+        <v>402</v>
+      </c>
+      <c r="R110" s="21"/>
+      <c r="T110" s="49"/>
       <c r="U110" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="V110" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="W110" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="X110" s="66" t="s">
+      <c r="V110" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="W110" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="X110" s="63" t="s">
         <v>59</v>
       </c>
       <c r="Y110" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Z110" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA110" s="53"/>
-      <c r="AC110" s="50"/>
-      <c r="AD110" s="107"/>
-      <c r="AE110" s="96" t="s">
+      <c r="Z110" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA110" s="52"/>
+      <c r="AC110" s="49"/>
+      <c r="AD110" s="123"/>
+      <c r="AE110" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AF110" s="96" t="s">
+      <c r="AF110" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="AG110" s="96" t="s">
+      <c r="AG110" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AH110" s="95" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI110" s="100"/>
-      <c r="AJ110" s="101"/>
-      <c r="AK110" s="119"/>
-      <c r="AL110" s="120"/>
-      <c r="AM110" s="121"/>
-      <c r="AN110" s="53"/>
+      <c r="AH110" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI110" s="90"/>
+      <c r="AJ110" s="91"/>
+      <c r="AK110" s="113"/>
+      <c r="AL110" s="114"/>
+      <c r="AM110" s="115"/>
+      <c r="AN110" s="52"/>
     </row>
     <row r="111" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I111" s="50"/>
+      <c r="I111" s="49"/>
       <c r="J111" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="K111" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L111" s="58"/>
-      <c r="M111" s="58"/>
-      <c r="N111" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O111" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="P111" s="39">
+        <v>397</v>
+      </c>
+      <c r="K111" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="L111" s="63"/>
+      <c r="M111" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N111" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="O111" s="38">
         <v>43468</v>
       </c>
+      <c r="P111" s="38">
+        <v>43468</v>
+      </c>
       <c r="Q111" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="R111" s="53"/>
-      <c r="T111" s="50"/>
+        <v>402</v>
+      </c>
+      <c r="R111" s="21"/>
+      <c r="T111" s="49"/>
       <c r="U111" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="V111" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="W111" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="X111" s="66" t="s">
+      <c r="V111" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="W111" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="X111" s="63" t="s">
         <v>61</v>
       </c>
       <c r="Y111" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Z111" s="135" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA111" s="53"/>
-      <c r="AC111" s="50"/>
-      <c r="AD111" s="108"/>
-      <c r="AE111" s="96" t="s">
+      <c r="Z111" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA111" s="52"/>
+      <c r="AC111" s="49"/>
+      <c r="AD111" s="124"/>
+      <c r="AE111" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AF111" s="96" t="s">
+      <c r="AF111" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="AG111" s="96" t="s">
+      <c r="AG111" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AH111" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI111" s="100"/>
-      <c r="AJ111" s="101"/>
-      <c r="AK111" s="119"/>
-      <c r="AL111" s="120"/>
-      <c r="AM111" s="121"/>
-      <c r="AN111" s="53"/>
+      <c r="AH111" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI111" s="90"/>
+      <c r="AJ111" s="91"/>
+      <c r="AK111" s="113"/>
+      <c r="AL111" s="114"/>
+      <c r="AM111" s="115"/>
+      <c r="AN111" s="52"/>
     </row>
     <row r="112" spans="9:45" ht="17.25" thickBot="1">
-      <c r="I112" s="50"/>
-      <c r="J112" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="K112" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="O112" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="P112" s="63">
+      <c r="I112" s="49"/>
+      <c r="J112" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="K112" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="L112" s="71"/>
+      <c r="M112" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="N112" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="O112" s="60">
         <v>43468</v>
       </c>
-      <c r="Q112" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="R112" s="53"/>
-      <c r="T112" s="50"/>
-      <c r="Z112" s="52"/>
-      <c r="AA112" s="53"/>
-      <c r="AC112" s="50"/>
-      <c r="AD112" s="106" t="s">
+      <c r="P112" s="60">
+        <v>43468</v>
+      </c>
+      <c r="Q112" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="R112" s="58"/>
+      <c r="T112" s="49"/>
+      <c r="Z112" s="51"/>
+      <c r="AA112" s="52"/>
+      <c r="AC112" s="49"/>
+      <c r="AD112" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="AE112" s="96" t="s">
+      <c r="AE112" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AF112" s="96" t="s">
+      <c r="AF112" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AG112" s="96" t="s">
+      <c r="AG112" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="AH112" s="95" t="s">
+      <c r="AH112" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI112" s="90"/>
+      <c r="AJ112" s="91"/>
+      <c r="AK112" s="113"/>
+      <c r="AL112" s="114"/>
+      <c r="AM112" s="115"/>
+      <c r="AN112" s="52"/>
+    </row>
+    <row r="113" spans="9:40" ht="17.25" thickBot="1">
+      <c r="I113" s="49"/>
+      <c r="J113" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="K113" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="L113" s="63"/>
+      <c r="M113" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N113" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="O113" s="38">
+        <v>43468</v>
+      </c>
+      <c r="P113" s="38">
+        <v>43468</v>
+      </c>
+      <c r="Q113" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="R113" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="T113" s="49"/>
+      <c r="AA113" s="52"/>
+      <c r="AC113" s="49"/>
+      <c r="AD113" s="123"/>
+      <c r="AE113" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF113" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG113" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH113" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI113" s="90"/>
+      <c r="AJ113" s="91"/>
+      <c r="AK113" s="113"/>
+      <c r="AL113" s="114"/>
+      <c r="AM113" s="115"/>
+      <c r="AN113" s="52"/>
+    </row>
+    <row r="114" spans="9:40" ht="17.25" thickBot="1">
+      <c r="I114" s="49"/>
+      <c r="J114" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="K114" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="L114" s="63"/>
+      <c r="M114" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N114" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="O114" s="38">
+        <v>43468</v>
+      </c>
+      <c r="P114" s="38">
+        <v>43468</v>
+      </c>
+      <c r="Q114" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="R114" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="T114" s="49"/>
+      <c r="U114" s="51"/>
+      <c r="V114" s="51"/>
+      <c r="W114" s="51"/>
+      <c r="X114" s="51"/>
+      <c r="AA114" s="52"/>
+      <c r="AC114" s="49"/>
+      <c r="AD114" s="123"/>
+      <c r="AE114" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF114" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG114" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH114" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI114" s="90"/>
+      <c r="AJ114" s="91"/>
+      <c r="AK114" s="113"/>
+      <c r="AL114" s="114"/>
+      <c r="AM114" s="115"/>
+      <c r="AN114" s="52"/>
+    </row>
+    <row r="115" spans="9:40" ht="17.25" thickBot="1">
+      <c r="I115" s="49"/>
+      <c r="J115" s="147"/>
+      <c r="K115" s="148"/>
+      <c r="L115" s="148"/>
+      <c r="M115" s="50"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="149"/>
+      <c r="P115" s="149"/>
+      <c r="Q115" s="50"/>
+      <c r="R115" s="52"/>
+      <c r="T115" s="53"/>
+      <c r="U115" s="55"/>
+      <c r="V115" s="55"/>
+      <c r="W115" s="55"/>
+      <c r="X115" s="55"/>
+      <c r="Y115" s="55"/>
+      <c r="Z115" s="55"/>
+      <c r="AA115" s="56"/>
+      <c r="AC115" s="49"/>
+      <c r="AD115" s="123"/>
+      <c r="AE115" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF115" s="86"/>
+      <c r="AG115" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH115" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI115" s="90"/>
+      <c r="AJ115" s="91"/>
+      <c r="AK115" s="113"/>
+      <c r="AL115" s="114"/>
+      <c r="AM115" s="115"/>
+      <c r="AN115" s="52"/>
+    </row>
+    <row r="116" spans="9:40" ht="3" customHeight="1" thickBot="1">
+      <c r="I116" s="49"/>
+      <c r="J116" s="147"/>
+      <c r="K116" s="148"/>
+      <c r="L116" s="148"/>
+      <c r="M116" s="50"/>
+      <c r="N116" s="51"/>
+      <c r="O116" s="149"/>
+      <c r="P116" s="149"/>
+      <c r="Q116" s="50"/>
+      <c r="R116" s="52"/>
+      <c r="AC116" s="49"/>
+      <c r="AD116" s="124"/>
+      <c r="AE116" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF116" s="86"/>
+      <c r="AG116" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH116" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI116" s="90"/>
+      <c r="AJ116" s="91"/>
+      <c r="AK116" s="113"/>
+      <c r="AL116" s="114"/>
+      <c r="AM116" s="115"/>
+      <c r="AN116" s="52"/>
+    </row>
+    <row r="117" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="I117" s="49"/>
+      <c r="J117" s="147"/>
+      <c r="K117" s="148"/>
+      <c r="L117" s="148"/>
+      <c r="M117" s="50"/>
+      <c r="N117" s="51"/>
+      <c r="O117" s="149"/>
+      <c r="P117" s="149"/>
+      <c r="Q117" s="50"/>
+      <c r="R117" s="52"/>
+      <c r="AC117" s="49"/>
+      <c r="AD117" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE117" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF117" s="86"/>
+      <c r="AG117" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH117" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI117" s="90"/>
+      <c r="AJ117" s="91"/>
+      <c r="AK117" s="97"/>
+      <c r="AL117" s="51"/>
+      <c r="AM117" s="51"/>
+      <c r="AN117" s="52"/>
+    </row>
+    <row r="118" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="I118" s="49"/>
+      <c r="J118" s="147"/>
+      <c r="K118" s="148"/>
+      <c r="L118" s="148"/>
+      <c r="M118" s="50"/>
+      <c r="N118" s="51"/>
+      <c r="O118" s="149"/>
+      <c r="P118" s="149"/>
+      <c r="Q118" s="50"/>
+      <c r="R118" s="52"/>
+      <c r="AC118" s="49"/>
+      <c r="AD118" s="123"/>
+      <c r="AE118" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF118" s="86"/>
+      <c r="AG118" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH118" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI118" s="90"/>
+      <c r="AJ118" s="91"/>
+      <c r="AK118" s="90"/>
+      <c r="AL118" s="51"/>
+      <c r="AM118" s="51"/>
+      <c r="AN118" s="52"/>
+    </row>
+    <row r="119" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="I119" s="49"/>
+      <c r="J119" s="147"/>
+      <c r="K119" s="148"/>
+      <c r="L119" s="148"/>
+      <c r="M119" s="50"/>
+      <c r="N119" s="51"/>
+      <c r="O119" s="149"/>
+      <c r="P119" s="149"/>
+      <c r="Q119" s="50"/>
+      <c r="R119" s="52"/>
+      <c r="AC119" s="49"/>
+      <c r="AD119" s="123"/>
+      <c r="AE119" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF119" s="86"/>
+      <c r="AG119" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH119" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="AI112" s="100"/>
-      <c r="AJ112" s="101"/>
-      <c r="AK112" s="119"/>
-      <c r="AL112" s="120"/>
-      <c r="AM112" s="121"/>
-      <c r="AN112" s="53"/>
-    </row>
-    <row r="113" spans="9:40" ht="17.25" thickBot="1">
-      <c r="I113" s="50"/>
-      <c r="J113" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="K113" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L113" s="58"/>
-      <c r="M113" s="58"/>
-      <c r="N113" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O113" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="P113" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q113" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="R113" s="53"/>
-      <c r="T113" s="50"/>
-      <c r="AA113" s="53"/>
-      <c r="AC113" s="50"/>
-      <c r="AD113" s="107"/>
-      <c r="AE113" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF113" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG113" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH113" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI113" s="100"/>
-      <c r="AJ113" s="101"/>
-      <c r="AK113" s="119"/>
-      <c r="AL113" s="120"/>
-      <c r="AM113" s="121"/>
-      <c r="AN113" s="53"/>
-    </row>
-    <row r="114" spans="9:40" ht="17.25" thickBot="1">
-      <c r="I114" s="50"/>
-      <c r="J114" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="K114" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L114" s="58"/>
-      <c r="M114" s="58"/>
-      <c r="N114" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O114" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="P114" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q114" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R114" s="53"/>
-      <c r="T114" s="50"/>
-      <c r="U114" s="52"/>
-      <c r="V114" s="52"/>
-      <c r="W114" s="52"/>
-      <c r="X114" s="52"/>
-      <c r="AA114" s="53"/>
-      <c r="AC114" s="50"/>
-      <c r="AD114" s="107"/>
-      <c r="AE114" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF114" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG114" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH114" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI114" s="100"/>
-      <c r="AJ114" s="101"/>
-      <c r="AK114" s="119"/>
-      <c r="AL114" s="120"/>
-      <c r="AM114" s="121"/>
-      <c r="AN114" s="53"/>
-    </row>
-    <row r="115" spans="9:40" ht="17.25" thickBot="1">
-      <c r="I115" s="50"/>
-      <c r="J115" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="K115" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O115" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="P115" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q115" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R115" s="53"/>
-      <c r="T115" s="54"/>
-      <c r="U115" s="56"/>
-      <c r="V115" s="56"/>
-      <c r="W115" s="56"/>
-      <c r="X115" s="56"/>
-      <c r="Y115" s="56"/>
-      <c r="Z115" s="56"/>
-      <c r="AA115" s="57"/>
-      <c r="AC115" s="50"/>
-      <c r="AD115" s="107"/>
-      <c r="AE115" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF115" s="96"/>
-      <c r="AG115" s="96" t="s">
+      <c r="AI119" s="90"/>
+      <c r="AJ119" s="91"/>
+      <c r="AK119" s="90"/>
+      <c r="AL119" s="51"/>
+      <c r="AM119" s="51"/>
+      <c r="AN119" s="52"/>
+    </row>
+    <row r="120" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="I120" s="49"/>
+      <c r="J120" s="147"/>
+      <c r="K120" s="148"/>
+      <c r="L120" s="148"/>
+      <c r="M120" s="50"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="149"/>
+      <c r="P120" s="149"/>
+      <c r="Q120" s="50"/>
+      <c r="R120" s="52"/>
+      <c r="AC120" s="49"/>
+      <c r="AD120" s="124"/>
+      <c r="AE120" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF120" s="86"/>
+      <c r="AG120" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AH115" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI115" s="100"/>
-      <c r="AJ115" s="101"/>
-      <c r="AK115" s="119"/>
-      <c r="AL115" s="120"/>
-      <c r="AM115" s="121"/>
-      <c r="AN115" s="53"/>
-    </row>
-    <row r="116" spans="9:40" ht="3" customHeight="1" thickBot="1">
-      <c r="I116" s="50"/>
-      <c r="J116" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="K116" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O116" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="P116" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q116" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R116" s="53"/>
-      <c r="AC116" s="50"/>
-      <c r="AD116" s="108"/>
-      <c r="AE116" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF116" s="96"/>
-      <c r="AG116" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH116" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI116" s="100"/>
-      <c r="AJ116" s="101"/>
-      <c r="AK116" s="119"/>
-      <c r="AL116" s="120"/>
-      <c r="AM116" s="121"/>
-      <c r="AN116" s="53"/>
-    </row>
-    <row r="117" spans="9:40" ht="17.25" hidden="1" thickBot="1">
-      <c r="I117" s="50"/>
-      <c r="J117" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="K117" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O117" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="P117" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q117" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R117" s="53"/>
-      <c r="AC117" s="50"/>
-      <c r="AD117" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE117" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF117" s="96"/>
-      <c r="AG117" s="96" t="s">
+      <c r="AH120" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI120" s="90"/>
+      <c r="AJ120" s="94"/>
+      <c r="AK120" s="90"/>
+      <c r="AL120" s="51"/>
+      <c r="AM120" s="51"/>
+      <c r="AN120" s="52"/>
+    </row>
+    <row r="121" spans="9:40">
+      <c r="I121" s="49"/>
+      <c r="J121" s="147"/>
+      <c r="K121" s="148"/>
+      <c r="L121" s="148"/>
+      <c r="M121" s="50"/>
+      <c r="N121" s="51"/>
+      <c r="O121" s="149"/>
+      <c r="P121" s="149"/>
+      <c r="Q121" s="50"/>
+      <c r="R121" s="52"/>
+      <c r="AC121" s="49"/>
+      <c r="AD121" s="51"/>
+      <c r="AE121" s="51"/>
+      <c r="AF121" s="51"/>
+      <c r="AG121" s="51"/>
+      <c r="AH121" s="51"/>
+      <c r="AI121" s="51"/>
+      <c r="AJ121" s="51"/>
+      <c r="AK121" s="51"/>
+      <c r="AL121" s="51"/>
+      <c r="AM121" s="51"/>
+      <c r="AN121" s="52"/>
+    </row>
+    <row r="122" spans="9:40">
+      <c r="I122" s="49"/>
+      <c r="J122" s="147"/>
+      <c r="K122" s="148"/>
+      <c r="L122" s="148"/>
+      <c r="M122" s="50"/>
+      <c r="N122" s="51"/>
+      <c r="O122" s="149"/>
+      <c r="P122" s="149"/>
+      <c r="Q122" s="50"/>
+      <c r="R122" s="52"/>
+      <c r="AC122" s="49"/>
+      <c r="AD122" s="51"/>
+      <c r="AE122" s="51"/>
+      <c r="AF122" s="51"/>
+      <c r="AG122" s="51"/>
+      <c r="AH122" s="51"/>
+      <c r="AI122" s="51"/>
+      <c r="AJ122" s="51"/>
+      <c r="AK122" s="51"/>
+      <c r="AL122" s="51"/>
+      <c r="AM122" s="51"/>
+      <c r="AN122" s="52"/>
+    </row>
+    <row r="123" spans="9:40">
+      <c r="I123" s="49"/>
+      <c r="J123" s="147"/>
+      <c r="K123" s="148"/>
+      <c r="L123" s="148"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="149"/>
+      <c r="P123" s="149"/>
+      <c r="Q123" s="50"/>
+      <c r="R123" s="52"/>
+      <c r="AC123" s="49"/>
+      <c r="AD123" s="107" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE123" s="51"/>
+      <c r="AF123" s="51"/>
+      <c r="AG123" s="51"/>
+      <c r="AH123" s="51"/>
+      <c r="AI123" s="51"/>
+      <c r="AJ123" s="107" t="s">
+        <v>357</v>
+      </c>
+      <c r="AK123" s="51"/>
+      <c r="AL123" s="51"/>
+      <c r="AM123" s="51"/>
+      <c r="AN123" s="52"/>
+    </row>
+    <row r="124" spans="9:40" ht="36.75" customHeight="1">
+      <c r="I124" s="49"/>
+      <c r="J124" s="147"/>
+      <c r="K124" s="148"/>
+      <c r="L124" s="148"/>
+      <c r="M124" s="50"/>
+      <c r="N124" s="51"/>
+      <c r="O124" s="149"/>
+      <c r="P124" s="149"/>
+      <c r="Q124" s="50"/>
+      <c r="R124" s="52"/>
+      <c r="AC124" s="49"/>
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
+      <c r="AF124" s="51"/>
+      <c r="AG124" s="51"/>
+      <c r="AH124" s="51"/>
+      <c r="AI124" s="51"/>
+      <c r="AJ124" s="99">
         <v>7</v>
       </c>
-      <c r="AH117" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI117" s="100"/>
-      <c r="AJ117" s="101"/>
-      <c r="AK117" s="111"/>
-      <c r="AL117" s="52"/>
-      <c r="AM117" s="52"/>
-      <c r="AN117" s="53"/>
-    </row>
-    <row r="118" spans="9:40" ht="17.25" hidden="1" thickBot="1">
-      <c r="I118" s="50"/>
-      <c r="J118" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="K118" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O118" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="P118" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q118" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R118" s="53"/>
-      <c r="AC118" s="50"/>
-      <c r="AD118" s="107"/>
-      <c r="AE118" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF118" s="96"/>
-      <c r="AG118" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH118" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI118" s="100"/>
-      <c r="AJ118" s="101"/>
-      <c r="AK118" s="100"/>
-      <c r="AL118" s="52"/>
-      <c r="AM118" s="52"/>
-      <c r="AN118" s="53"/>
-    </row>
-    <row r="119" spans="9:40" ht="17.25" hidden="1" thickBot="1">
-      <c r="I119" s="50"/>
-      <c r="J119" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="K119" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L119" s="58"/>
-      <c r="M119" s="58"/>
-      <c r="N119" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O119" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="P119" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q119" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R119" s="53"/>
-      <c r="AC119" s="50"/>
-      <c r="AD119" s="107"/>
-      <c r="AE119" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF119" s="96"/>
-      <c r="AG119" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH119" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI119" s="100"/>
-      <c r="AJ119" s="101"/>
-      <c r="AK119" s="100"/>
-      <c r="AL119" s="52"/>
-      <c r="AM119" s="52"/>
-      <c r="AN119" s="53"/>
-    </row>
-    <row r="120" spans="9:40" ht="17.25" hidden="1" thickBot="1">
-      <c r="I120" s="50"/>
-      <c r="J120" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="K120" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L120" s="58"/>
-      <c r="M120" s="58"/>
-      <c r="N120" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O120" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="P120" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q120" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R120" s="53"/>
-      <c r="AC120" s="50"/>
-      <c r="AD120" s="108"/>
-      <c r="AE120" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF120" s="96"/>
-      <c r="AG120" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH120" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI120" s="100"/>
-      <c r="AJ120" s="104"/>
-      <c r="AK120" s="100"/>
-      <c r="AL120" s="52"/>
-      <c r="AM120" s="52"/>
-      <c r="AN120" s="53"/>
-    </row>
-    <row r="121" spans="9:40">
-      <c r="I121" s="50"/>
-      <c r="J121" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="K121" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L121" s="58"/>
-      <c r="M121" s="58"/>
-      <c r="N121" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O121" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="P121" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q121" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R121" s="53"/>
-      <c r="AC121" s="50"/>
-      <c r="AD121" s="52"/>
-      <c r="AE121" s="52"/>
-      <c r="AF121" s="52"/>
-      <c r="AG121" s="52"/>
-      <c r="AH121" s="52"/>
-      <c r="AI121" s="52"/>
-      <c r="AJ121" s="52"/>
-      <c r="AK121" s="52"/>
-      <c r="AL121" s="52"/>
-      <c r="AM121" s="52"/>
-      <c r="AN121" s="53"/>
-    </row>
-    <row r="122" spans="9:40">
-      <c r="I122" s="50"/>
-      <c r="J122" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="K122" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L122" s="58"/>
-      <c r="M122" s="58"/>
-      <c r="N122" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O122" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="P122" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q122" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R122" s="53"/>
-      <c r="AC122" s="50"/>
-      <c r="AD122" s="52"/>
-      <c r="AE122" s="52"/>
-      <c r="AF122" s="52"/>
-      <c r="AG122" s="52"/>
-      <c r="AH122" s="52"/>
-      <c r="AI122" s="52"/>
-      <c r="AJ122" s="52"/>
-      <c r="AK122" s="52"/>
-      <c r="AL122" s="52"/>
-      <c r="AM122" s="52"/>
-      <c r="AN122" s="53"/>
-    </row>
-    <row r="123" spans="9:40">
-      <c r="I123" s="50"/>
-      <c r="J123" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="K123" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L123" s="58"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O123" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="P123" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q123" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R123" s="53"/>
-      <c r="AC123" s="50"/>
-      <c r="AD123" s="136" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE123" s="52"/>
-      <c r="AF123" s="52"/>
-      <c r="AG123" s="52"/>
-      <c r="AH123" s="52"/>
-      <c r="AI123" s="52"/>
-      <c r="AJ123" s="136" t="s">
-        <v>394</v>
-      </c>
-      <c r="AK123" s="52"/>
-      <c r="AL123" s="52"/>
-      <c r="AM123" s="52"/>
-      <c r="AN123" s="53"/>
-    </row>
-    <row r="124" spans="9:40" ht="36.75" customHeight="1">
-      <c r="I124" s="50"/>
-      <c r="J124" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="K124" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L124" s="58"/>
-      <c r="M124" s="58"/>
-      <c r="N124" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O124" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="P124" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q124" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R124" s="53"/>
-      <c r="AC124" s="50"/>
-      <c r="AD124" s="52"/>
-      <c r="AE124" s="52"/>
-      <c r="AF124" s="52"/>
-      <c r="AG124" s="52"/>
-      <c r="AH124" s="52"/>
-      <c r="AI124" s="52"/>
-      <c r="AJ124" s="114">
-        <v>7</v>
-      </c>
-      <c r="AK124" s="114">
+      <c r="AK124" s="99">
         <v>8</v>
       </c>
-      <c r="AL124" s="114">
+      <c r="AL124" s="99">
         <v>9</v>
       </c>
-      <c r="AM124" s="128" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN124" s="53"/>
+      <c r="AM124" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN124" s="52"/>
     </row>
     <row r="125" spans="9:40" ht="36.75" customHeight="1">
-      <c r="I125" s="50"/>
-      <c r="J125" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="K125" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L125" s="58"/>
-      <c r="M125" s="58"/>
-      <c r="N125" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O125" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="P125" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q125" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R125" s="53"/>
-      <c r="AC125" s="50"/>
-      <c r="AD125" s="52"/>
-      <c r="AE125" s="52"/>
-      <c r="AF125" s="52"/>
-      <c r="AG125" s="52"/>
-      <c r="AH125" s="52"/>
-      <c r="AI125" s="52"/>
-      <c r="AJ125" s="114">
+      <c r="I125" s="49"/>
+      <c r="J125" s="147"/>
+      <c r="K125" s="148"/>
+      <c r="L125" s="148"/>
+      <c r="M125" s="50"/>
+      <c r="N125" s="51"/>
+      <c r="O125" s="149"/>
+      <c r="P125" s="149"/>
+      <c r="Q125" s="50"/>
+      <c r="R125" s="52"/>
+      <c r="AC125" s="49"/>
+      <c r="AD125" s="51"/>
+      <c r="AE125" s="51"/>
+      <c r="AF125" s="51"/>
+      <c r="AG125" s="51"/>
+      <c r="AH125" s="51"/>
+      <c r="AI125" s="51"/>
+      <c r="AJ125" s="99">
         <v>4</v>
       </c>
-      <c r="AK125" s="114">
+      <c r="AK125" s="99">
         <v>5</v>
       </c>
-      <c r="AL125" s="114">
+      <c r="AL125" s="99">
         <v>6</v>
       </c>
-      <c r="AM125" s="129"/>
-      <c r="AN125" s="53"/>
+      <c r="AM125" s="119"/>
+      <c r="AN125" s="52"/>
     </row>
     <row r="126" spans="9:40" ht="36.75" customHeight="1">
-      <c r="I126" s="50"/>
-      <c r="J126" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="K126" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L126" s="58"/>
-      <c r="M126" s="58"/>
-      <c r="N126" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O126" s="26" t="s">
+      <c r="I126" s="49"/>
+      <c r="J126" s="147"/>
+      <c r="K126" s="148"/>
+      <c r="L126" s="148"/>
+      <c r="M126" s="50"/>
+      <c r="N126" s="51"/>
+      <c r="O126" s="149"/>
+      <c r="P126" s="149"/>
+      <c r="Q126" s="50"/>
+      <c r="R126" s="52"/>
+      <c r="AC126" s="49"/>
+      <c r="AD126" s="51"/>
+      <c r="AE126" s="51"/>
+      <c r="AF126" s="51"/>
+      <c r="AG126" s="51"/>
+      <c r="AH126" s="51"/>
+      <c r="AI126" s="51"/>
+      <c r="AJ126" s="99">
+        <v>1</v>
+      </c>
+      <c r="AK126" s="99">
+        <v>2</v>
+      </c>
+      <c r="AL126" s="99">
+        <v>3</v>
+      </c>
+      <c r="AM126" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN126" s="52"/>
+    </row>
+    <row r="127" spans="9:40" ht="36.75" customHeight="1">
+      <c r="I127" s="49"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="51"/>
+      <c r="L127" s="51"/>
+      <c r="M127" s="51"/>
+      <c r="N127" s="51"/>
+      <c r="O127" s="51"/>
+      <c r="P127" s="51"/>
+      <c r="Q127" s="51"/>
+      <c r="R127" s="52"/>
+      <c r="AC127" s="49"/>
+      <c r="AD127" s="51"/>
+      <c r="AE127" s="51"/>
+      <c r="AF127" s="51"/>
+      <c r="AG127" s="51"/>
+      <c r="AH127" s="51"/>
+      <c r="AI127" s="51"/>
+      <c r="AJ127" s="120">
+        <v>0</v>
+      </c>
+      <c r="AK127" s="121"/>
+      <c r="AL127" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="P126" s="39">
-        <v>43468</v>
-      </c>
-      <c r="Q126" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="R126" s="53"/>
-      <c r="AC126" s="50"/>
-      <c r="AD126" s="52"/>
-      <c r="AE126" s="52"/>
-      <c r="AF126" s="52"/>
-      <c r="AG126" s="52"/>
-      <c r="AH126" s="52"/>
-      <c r="AI126" s="52"/>
-      <c r="AJ126" s="114">
-        <v>1</v>
-      </c>
-      <c r="AK126" s="114">
-        <v>2</v>
-      </c>
-      <c r="AL126" s="114">
-        <v>3</v>
-      </c>
-      <c r="AM126" s="115" t="s">
-        <v>382</v>
-      </c>
-      <c r="AN126" s="53"/>
-    </row>
-    <row r="127" spans="9:40" ht="36.75" customHeight="1">
-      <c r="I127" s="50"/>
-      <c r="J127" s="51"/>
-      <c r="K127" s="52"/>
-      <c r="L127" s="52"/>
-      <c r="M127" s="52"/>
-      <c r="N127" s="52"/>
-      <c r="O127" s="52"/>
-      <c r="P127" s="52"/>
-      <c r="Q127" s="52"/>
-      <c r="R127" s="53"/>
-      <c r="AC127" s="50"/>
-      <c r="AD127" s="52"/>
-      <c r="AE127" s="52"/>
-      <c r="AF127" s="52"/>
-      <c r="AG127" s="52"/>
-      <c r="AH127" s="52"/>
-      <c r="AI127" s="52"/>
-      <c r="AJ127" s="117">
-        <v>0</v>
-      </c>
-      <c r="AK127" s="118"/>
-      <c r="AL127" s="114" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM127" s="116"/>
-      <c r="AN127" s="53"/>
+      <c r="AM127" s="117"/>
+      <c r="AN127" s="52"/>
     </row>
     <row r="128" spans="9:40" ht="9" customHeight="1">
-      <c r="I128" s="50"/>
-      <c r="J128" s="51"/>
-      <c r="K128" s="52"/>
-      <c r="L128" s="52"/>
-      <c r="M128" s="52"/>
-      <c r="N128" s="52"/>
-      <c r="O128" s="52"/>
-      <c r="P128" s="52"/>
-      <c r="Q128" s="52"/>
-      <c r="R128" s="53"/>
-      <c r="AC128" s="50"/>
-      <c r="AD128" s="52"/>
-      <c r="AE128" s="52"/>
-      <c r="AF128" s="52"/>
-      <c r="AG128" s="52"/>
-      <c r="AH128" s="52"/>
-      <c r="AI128" s="52"/>
-      <c r="AJ128" s="52"/>
-      <c r="AK128" s="52"/>
-      <c r="AL128" s="52"/>
-      <c r="AM128" s="52"/>
-      <c r="AN128" s="53"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="50"/>
+      <c r="K128" s="51"/>
+      <c r="L128" s="51"/>
+      <c r="M128" s="51"/>
+      <c r="N128" s="51"/>
+      <c r="O128" s="51"/>
+      <c r="P128" s="51"/>
+      <c r="Q128" s="51"/>
+      <c r="R128" s="52"/>
+      <c r="AC128" s="49"/>
+      <c r="AD128" s="51"/>
+      <c r="AE128" s="51"/>
+      <c r="AF128" s="51"/>
+      <c r="AG128" s="51"/>
+      <c r="AH128" s="51"/>
+      <c r="AI128" s="51"/>
+      <c r="AJ128" s="51"/>
+      <c r="AK128" s="51"/>
+      <c r="AL128" s="51"/>
+      <c r="AM128" s="51"/>
+      <c r="AN128" s="52"/>
     </row>
     <row r="129" spans="9:40" ht="9" customHeight="1">
-      <c r="I129" s="50"/>
-      <c r="J129" s="51"/>
-      <c r="K129" s="52"/>
-      <c r="L129" s="52"/>
-      <c r="M129" s="52"/>
-      <c r="N129" s="52"/>
-      <c r="O129" s="52"/>
-      <c r="P129" s="52"/>
-      <c r="Q129" s="52"/>
-      <c r="R129" s="53"/>
-      <c r="AC129" s="50"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
-      <c r="AF129" s="52"/>
-      <c r="AG129" s="52"/>
-      <c r="AH129" s="52"/>
-      <c r="AI129" s="52"/>
-      <c r="AJ129" s="52"/>
-      <c r="AK129" s="52"/>
-      <c r="AL129" s="52"/>
-      <c r="AM129" s="52"/>
-      <c r="AN129" s="53"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="51"/>
+      <c r="L129" s="51"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="51"/>
+      <c r="O129" s="51"/>
+      <c r="P129" s="51"/>
+      <c r="Q129" s="51"/>
+      <c r="R129" s="52"/>
+      <c r="AC129" s="49"/>
+      <c r="AD129" s="51"/>
+      <c r="AE129" s="51"/>
+      <c r="AF129" s="51"/>
+      <c r="AG129" s="51"/>
+      <c r="AH129" s="51"/>
+      <c r="AI129" s="51"/>
+      <c r="AJ129" s="51"/>
+      <c r="AK129" s="51"/>
+      <c r="AL129" s="51"/>
+      <c r="AM129" s="51"/>
+      <c r="AN129" s="52"/>
     </row>
     <row r="130" spans="9:40" ht="0.75" customHeight="1">
-      <c r="I130" s="50"/>
-      <c r="J130" s="51"/>
-      <c r="K130" s="52"/>
-      <c r="L130" s="52"/>
-      <c r="M130" s="52"/>
-      <c r="N130" s="52"/>
-      <c r="O130" s="52"/>
-      <c r="P130" s="52"/>
-      <c r="Q130" s="52"/>
-      <c r="R130" s="53"/>
-      <c r="AC130" s="50"/>
-      <c r="AD130" s="52"/>
-      <c r="AE130" s="52"/>
-      <c r="AF130" s="52"/>
-      <c r="AG130" s="52"/>
-      <c r="AH130" s="52"/>
-      <c r="AI130" s="52"/>
-      <c r="AJ130" s="125" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK130" s="127" t="s">
-        <v>384</v>
-      </c>
-      <c r="AL130" s="127" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM130" s="126" t="s">
-        <v>383</v>
-      </c>
-      <c r="AN130" s="53"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="50"/>
+      <c r="K130" s="51"/>
+      <c r="L130" s="51"/>
+      <c r="M130" s="51"/>
+      <c r="N130" s="51"/>
+      <c r="O130" s="51"/>
+      <c r="P130" s="51"/>
+      <c r="Q130" s="51"/>
+      <c r="R130" s="52"/>
+      <c r="AC130" s="49"/>
+      <c r="AD130" s="51"/>
+      <c r="AE130" s="51"/>
+      <c r="AF130" s="51"/>
+      <c r="AG130" s="51"/>
+      <c r="AH130" s="51"/>
+      <c r="AI130" s="51"/>
+      <c r="AJ130" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK130" s="100" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL130" s="100" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM130" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN130" s="52"/>
     </row>
     <row r="131" spans="9:40" ht="0.75" customHeight="1">
-      <c r="I131" s="50"/>
-      <c r="J131" s="51"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="52"/>
-      <c r="N131" s="52"/>
-      <c r="O131" s="52"/>
-      <c r="P131" s="52"/>
-      <c r="Q131" s="52"/>
-      <c r="R131" s="53"/>
-      <c r="AC131" s="50"/>
-      <c r="AD131" s="52"/>
-      <c r="AE131" s="52"/>
-      <c r="AF131" s="52"/>
-      <c r="AG131" s="52"/>
-      <c r="AH131" s="52"/>
-      <c r="AI131" s="52"/>
-      <c r="AJ131" s="125"/>
-      <c r="AK131" s="127" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL131" s="127" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM131" s="126"/>
-      <c r="AN131" s="53"/>
+      <c r="I131" s="49"/>
+      <c r="J131" s="50"/>
+      <c r="K131" s="51"/>
+      <c r="L131" s="51"/>
+      <c r="M131" s="51"/>
+      <c r="N131" s="51"/>
+      <c r="O131" s="51"/>
+      <c r="P131" s="51"/>
+      <c r="Q131" s="51"/>
+      <c r="R131" s="52"/>
+      <c r="AC131" s="49"/>
+      <c r="AD131" s="51"/>
+      <c r="AE131" s="51"/>
+      <c r="AF131" s="51"/>
+      <c r="AG131" s="51"/>
+      <c r="AH131" s="51"/>
+      <c r="AI131" s="51"/>
+      <c r="AJ131" s="109"/>
+      <c r="AK131" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL131" s="100" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM131" s="110"/>
+      <c r="AN131" s="52"/>
     </row>
     <row r="132" spans="9:40">
-      <c r="I132" s="50"/>
-      <c r="J132" s="51"/>
-      <c r="K132" s="52"/>
-      <c r="L132" s="52"/>
-      <c r="M132" s="52"/>
-      <c r="N132" s="52"/>
-      <c r="O132" s="52"/>
-      <c r="P132" s="52"/>
-      <c r="Q132" s="52"/>
-      <c r="R132" s="53"/>
-      <c r="AC132" s="50"/>
-      <c r="AD132" s="52"/>
-      <c r="AE132" s="52"/>
-      <c r="AF132" s="52"/>
-      <c r="AG132" s="52"/>
-      <c r="AH132" s="52"/>
-      <c r="AI132" s="52"/>
-      <c r="AJ132" s="52"/>
-      <c r="AK132" s="52"/>
-      <c r="AL132" s="52"/>
-      <c r="AM132" s="52"/>
-      <c r="AN132" s="53"/>
+      <c r="I132" s="49"/>
+      <c r="J132" s="50"/>
+      <c r="K132" s="51"/>
+      <c r="L132" s="51"/>
+      <c r="M132" s="51"/>
+      <c r="N132" s="51"/>
+      <c r="O132" s="51"/>
+      <c r="P132" s="51"/>
+      <c r="Q132" s="51"/>
+      <c r="R132" s="52"/>
+      <c r="AC132" s="49"/>
+      <c r="AD132" s="51"/>
+      <c r="AE132" s="51"/>
+      <c r="AF132" s="51"/>
+      <c r="AG132" s="51"/>
+      <c r="AH132" s="51"/>
+      <c r="AI132" s="51"/>
+      <c r="AJ132" s="51"/>
+      <c r="AK132" s="51"/>
+      <c r="AL132" s="51"/>
+      <c r="AM132" s="51"/>
+      <c r="AN132" s="52"/>
     </row>
     <row r="133" spans="9:40" ht="16.5" customHeight="1">
-      <c r="I133" s="50"/>
-      <c r="J133" s="51"/>
-      <c r="K133" s="52"/>
-      <c r="L133" s="52"/>
-      <c r="M133" s="52"/>
-      <c r="N133" s="52"/>
-      <c r="O133" s="52"/>
-      <c r="P133" s="52"/>
-      <c r="Q133" s="52"/>
-      <c r="R133" s="53"/>
-      <c r="AC133" s="50"/>
-      <c r="AD133" s="52"/>
-      <c r="AE133" s="52"/>
-      <c r="AF133" s="52"/>
-      <c r="AG133" s="52"/>
-      <c r="AH133" s="52"/>
-      <c r="AI133" s="52"/>
-      <c r="AJ133" s="125" t="s">
-        <v>320</v>
-      </c>
-      <c r="AK133" s="125"/>
-      <c r="AL133" s="126" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM133" s="126"/>
-      <c r="AN133" s="53"/>
-    </row>
-    <row r="134" spans="9:40" ht="16.5" customHeight="1">
-      <c r="I134" s="50"/>
-      <c r="J134" s="51"/>
-      <c r="K134" s="52"/>
-      <c r="L134" s="52"/>
-      <c r="M134" s="52"/>
-      <c r="N134" s="52"/>
-      <c r="O134" s="52"/>
-      <c r="P134" s="52"/>
-      <c r="Q134" s="52"/>
-      <c r="R134" s="53"/>
-      <c r="AC134" s="50"/>
-      <c r="AD134" s="52"/>
-      <c r="AE134" s="52"/>
-      <c r="AF134" s="52"/>
-      <c r="AG134" s="52"/>
-      <c r="AH134" s="52"/>
-      <c r="AI134" s="52"/>
-      <c r="AJ134" s="125"/>
-      <c r="AK134" s="125"/>
-      <c r="AL134" s="126"/>
-      <c r="AM134" s="126"/>
-      <c r="AN134" s="53"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="50"/>
+      <c r="K133" s="51"/>
+      <c r="L133" s="51"/>
+      <c r="M133" s="51"/>
+      <c r="N133" s="51"/>
+      <c r="O133" s="51"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="51"/>
+      <c r="R133" s="52"/>
+      <c r="AC133" s="49"/>
+      <c r="AD133" s="51"/>
+      <c r="AE133" s="51"/>
+      <c r="AF133" s="51"/>
+      <c r="AG133" s="51"/>
+      <c r="AH133" s="51"/>
+      <c r="AI133" s="51"/>
+      <c r="AJ133" s="109" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK133" s="109"/>
+      <c r="AL133" s="110" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM133" s="110"/>
+      <c r="AN133" s="52"/>
+    </row>
+    <row r="134" spans="9:40" ht="16.5" customHeight="1" thickBot="1">
+      <c r="I134" s="53"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="55"/>
+      <c r="L134" s="55"/>
+      <c r="M134" s="55"/>
+      <c r="N134" s="55"/>
+      <c r="O134" s="55"/>
+      <c r="P134" s="55"/>
+      <c r="Q134" s="55"/>
+      <c r="R134" s="56"/>
+      <c r="AC134" s="49"/>
+      <c r="AD134" s="51"/>
+      <c r="AE134" s="51"/>
+      <c r="AF134" s="51"/>
+      <c r="AG134" s="51"/>
+      <c r="AH134" s="51"/>
+      <c r="AI134" s="51"/>
+      <c r="AJ134" s="109"/>
+      <c r="AK134" s="109"/>
+      <c r="AL134" s="110"/>
+      <c r="AM134" s="110"/>
+      <c r="AN134" s="52"/>
     </row>
     <row r="135" spans="9:40">
-      <c r="I135" s="50"/>
-      <c r="J135" s="51"/>
-      <c r="K135" s="52"/>
-      <c r="L135" s="52"/>
-      <c r="M135" s="52"/>
-      <c r="N135" s="52"/>
-      <c r="O135" s="52"/>
-      <c r="P135" s="52"/>
-      <c r="Q135" s="52"/>
-      <c r="R135" s="53"/>
-      <c r="AC135" s="50"/>
-      <c r="AD135" s="52"/>
-      <c r="AE135" s="52"/>
-      <c r="AF135" s="52"/>
-      <c r="AG135" s="52"/>
-      <c r="AH135" s="52"/>
-      <c r="AI135" s="52"/>
-      <c r="AJ135" s="52"/>
-      <c r="AK135" s="52"/>
-      <c r="AL135" s="52"/>
-      <c r="AM135" s="52"/>
-      <c r="AN135" s="53"/>
+      <c r="AC135" s="49"/>
+      <c r="AD135" s="51"/>
+      <c r="AE135" s="51"/>
+      <c r="AF135" s="51"/>
+      <c r="AG135" s="51"/>
+      <c r="AH135" s="51"/>
+      <c r="AI135" s="51"/>
+      <c r="AJ135" s="51"/>
+      <c r="AK135" s="51"/>
+      <c r="AL135" s="51"/>
+      <c r="AM135" s="51"/>
+      <c r="AN135" s="52"/>
     </row>
     <row r="136" spans="9:40">
-      <c r="I136" s="50"/>
-      <c r="J136" s="51"/>
-      <c r="K136" s="52"/>
-      <c r="L136" s="52"/>
-      <c r="M136" s="52"/>
-      <c r="N136" s="52"/>
-      <c r="O136" s="52"/>
-      <c r="P136" s="52"/>
-      <c r="Q136" s="52"/>
-      <c r="R136" s="53"/>
-      <c r="AC136" s="50"/>
-      <c r="AD136" s="52"/>
-      <c r="AE136" s="52"/>
-      <c r="AF136" s="52"/>
-      <c r="AG136" s="52"/>
-      <c r="AH136" s="52"/>
-      <c r="AI136" s="52"/>
-      <c r="AJ136" s="52"/>
-      <c r="AK136" s="52"/>
-      <c r="AL136" s="52"/>
-      <c r="AM136" s="52"/>
-      <c r="AN136" s="53"/>
+      <c r="AC136" s="49"/>
+      <c r="AD136" s="51"/>
+      <c r="AE136" s="51"/>
+      <c r="AF136" s="51"/>
+      <c r="AG136" s="51"/>
+      <c r="AH136" s="51"/>
+      <c r="AI136" s="51"/>
+      <c r="AJ136" s="51"/>
+      <c r="AK136" s="51"/>
+      <c r="AL136" s="51"/>
+      <c r="AM136" s="51"/>
+      <c r="AN136" s="52"/>
     </row>
     <row r="137" spans="9:40">
-      <c r="I137" s="50"/>
-      <c r="J137" s="51"/>
-      <c r="K137" s="52"/>
-      <c r="L137" s="52"/>
-      <c r="M137" s="52"/>
-      <c r="N137" s="52"/>
-      <c r="O137" s="52"/>
-      <c r="P137" s="52"/>
-      <c r="Q137" s="52"/>
-      <c r="R137" s="53"/>
-      <c r="AC137" s="50"/>
-      <c r="AD137" s="52"/>
-      <c r="AE137" s="52"/>
-      <c r="AF137" s="52"/>
-      <c r="AG137" s="52"/>
-      <c r="AH137" s="52"/>
-      <c r="AI137" s="52"/>
-      <c r="AJ137" s="52"/>
-      <c r="AK137" s="52"/>
-      <c r="AL137" s="52"/>
-      <c r="AM137" s="52"/>
-      <c r="AN137" s="53"/>
+      <c r="AC137" s="49"/>
+      <c r="AD137" s="51"/>
+      <c r="AE137" s="51"/>
+      <c r="AF137" s="51"/>
+      <c r="AG137" s="51"/>
+      <c r="AH137" s="51"/>
+      <c r="AI137" s="51"/>
+      <c r="AJ137" s="51"/>
+      <c r="AK137" s="51"/>
+      <c r="AL137" s="51"/>
+      <c r="AM137" s="51"/>
+      <c r="AN137" s="52"/>
     </row>
     <row r="138" spans="9:40">
-      <c r="I138" s="50"/>
-      <c r="J138" s="51"/>
-      <c r="K138" s="52"/>
-      <c r="L138" s="52"/>
-      <c r="M138" s="52"/>
-      <c r="N138" s="52"/>
-      <c r="O138" s="52"/>
-      <c r="P138" s="52"/>
-      <c r="Q138" s="52"/>
-      <c r="R138" s="53"/>
-      <c r="AC138" s="50"/>
-      <c r="AD138" s="52"/>
-      <c r="AE138" s="52"/>
-      <c r="AF138" s="52"/>
-      <c r="AG138" s="52"/>
-      <c r="AH138" s="52"/>
-      <c r="AI138" s="52"/>
-      <c r="AJ138" s="52"/>
-      <c r="AK138" s="52"/>
-      <c r="AL138" s="52"/>
-      <c r="AM138" s="52"/>
-      <c r="AN138" s="53"/>
+      <c r="AC138" s="49"/>
+      <c r="AD138" s="51"/>
+      <c r="AE138" s="51"/>
+      <c r="AF138" s="51"/>
+      <c r="AG138" s="51"/>
+      <c r="AH138" s="51"/>
+      <c r="AI138" s="51"/>
+      <c r="AJ138" s="51"/>
+      <c r="AK138" s="51"/>
+      <c r="AL138" s="51"/>
+      <c r="AM138" s="51"/>
+      <c r="AN138" s="52"/>
     </row>
     <row r="139" spans="9:40">
-      <c r="I139" s="50"/>
-      <c r="J139" s="51"/>
-      <c r="K139" s="52"/>
-      <c r="L139" s="52"/>
-      <c r="M139" s="52"/>
-      <c r="N139" s="52"/>
-      <c r="O139" s="52"/>
-      <c r="P139" s="52"/>
-      <c r="Q139" s="52"/>
-      <c r="R139" s="53"/>
-      <c r="AC139" s="50"/>
-      <c r="AD139" s="52"/>
-      <c r="AE139" s="52"/>
-      <c r="AF139" s="52"/>
-      <c r="AG139" s="52"/>
-      <c r="AH139" s="52"/>
-      <c r="AI139" s="52"/>
-      <c r="AJ139" s="52"/>
-      <c r="AK139" s="52"/>
-      <c r="AL139" s="52"/>
-      <c r="AM139" s="52"/>
-      <c r="AN139" s="53"/>
-    </row>
-    <row r="140" spans="9:40" ht="17.25" thickBot="1">
-      <c r="I140" s="54"/>
-      <c r="J140" s="55"/>
-      <c r="K140" s="56"/>
-      <c r="L140" s="56"/>
-      <c r="M140" s="56"/>
-      <c r="N140" s="56"/>
-      <c r="O140" s="56"/>
-      <c r="P140" s="56"/>
-      <c r="Q140" s="56"/>
-      <c r="R140" s="57"/>
-      <c r="AC140" s="50"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="52"/>
-      <c r="AF140" s="52"/>
-      <c r="AG140" s="52"/>
-      <c r="AH140" s="52"/>
-      <c r="AI140" s="52"/>
-      <c r="AJ140" s="52"/>
-      <c r="AK140" s="52"/>
-      <c r="AL140" s="52"/>
-      <c r="AM140" s="52"/>
-      <c r="AN140" s="53"/>
+      <c r="AC139" s="49"/>
+      <c r="AD139" s="51"/>
+      <c r="AE139" s="51"/>
+      <c r="AF139" s="51"/>
+      <c r="AG139" s="51"/>
+      <c r="AH139" s="51"/>
+      <c r="AI139" s="51"/>
+      <c r="AJ139" s="51"/>
+      <c r="AK139" s="51"/>
+      <c r="AL139" s="51"/>
+      <c r="AM139" s="51"/>
+      <c r="AN139" s="52"/>
+    </row>
+    <row r="140" spans="9:40">
+      <c r="AC140" s="49"/>
+      <c r="AD140" s="51"/>
+      <c r="AE140" s="51"/>
+      <c r="AF140" s="51"/>
+      <c r="AG140" s="51"/>
+      <c r="AH140" s="51"/>
+      <c r="AI140" s="51"/>
+      <c r="AJ140" s="51"/>
+      <c r="AK140" s="51"/>
+      <c r="AL140" s="51"/>
+      <c r="AM140" s="51"/>
+      <c r="AN140" s="52"/>
     </row>
     <row r="141" spans="9:40">
-      <c r="AC141" s="50"/>
-      <c r="AD141" s="52"/>
-      <c r="AE141" s="52"/>
-      <c r="AF141" s="52"/>
-      <c r="AG141" s="52"/>
-      <c r="AH141" s="52"/>
-      <c r="AI141" s="52"/>
-      <c r="AJ141" s="52"/>
-      <c r="AK141" s="52"/>
-      <c r="AL141" s="52"/>
-      <c r="AM141" s="52"/>
-      <c r="AN141" s="53"/>
+      <c r="AC141" s="49"/>
+      <c r="AD141" s="51"/>
+      <c r="AE141" s="51"/>
+      <c r="AF141" s="51"/>
+      <c r="AG141" s="51"/>
+      <c r="AH141" s="51"/>
+      <c r="AI141" s="51"/>
+      <c r="AJ141" s="51"/>
+      <c r="AK141" s="51"/>
+      <c r="AL141" s="51"/>
+      <c r="AM141" s="51"/>
+      <c r="AN141" s="52"/>
     </row>
     <row r="142" spans="9:40">
-      <c r="AC142" s="50"/>
-      <c r="AD142" s="52"/>
-      <c r="AE142" s="52"/>
-      <c r="AF142" s="52"/>
-      <c r="AG142" s="52"/>
-      <c r="AH142" s="52"/>
-      <c r="AI142" s="52"/>
-      <c r="AJ142" s="52"/>
-      <c r="AK142" s="52"/>
-      <c r="AL142" s="52"/>
-      <c r="AM142" s="52"/>
-      <c r="AN142" s="53"/>
+      <c r="AC142" s="49"/>
+      <c r="AD142" s="51"/>
+      <c r="AE142" s="51"/>
+      <c r="AF142" s="51"/>
+      <c r="AG142" s="51"/>
+      <c r="AH142" s="51"/>
+      <c r="AI142" s="51"/>
+      <c r="AJ142" s="51"/>
+      <c r="AK142" s="51"/>
+      <c r="AL142" s="51"/>
+      <c r="AM142" s="51"/>
+      <c r="AN142" s="52"/>
     </row>
     <row r="143" spans="9:40">
-      <c r="AC143" s="50"/>
-      <c r="AD143" s="52"/>
-      <c r="AE143" s="52"/>
-      <c r="AF143" s="52"/>
-      <c r="AG143" s="52"/>
-      <c r="AH143" s="52"/>
-      <c r="AI143" s="52"/>
-      <c r="AJ143" s="52"/>
-      <c r="AK143" s="52"/>
-      <c r="AL143" s="52"/>
-      <c r="AM143" s="52"/>
-      <c r="AN143" s="53"/>
+      <c r="AC143" s="49"/>
+      <c r="AD143" s="51"/>
+      <c r="AE143" s="51"/>
+      <c r="AF143" s="51"/>
+      <c r="AG143" s="51"/>
+      <c r="AH143" s="51"/>
+      <c r="AI143" s="51"/>
+      <c r="AJ143" s="51"/>
+      <c r="AK143" s="51"/>
+      <c r="AL143" s="51"/>
+      <c r="AM143" s="51"/>
+      <c r="AN143" s="52"/>
     </row>
     <row r="144" spans="9:40" ht="17.25" thickBot="1">
-      <c r="AC144" s="54"/>
-      <c r="AD144" s="56"/>
-      <c r="AE144" s="56"/>
-      <c r="AF144" s="56"/>
-      <c r="AG144" s="56"/>
-      <c r="AH144" s="56"/>
-      <c r="AI144" s="56"/>
-      <c r="AJ144" s="56"/>
-      <c r="AK144" s="56"/>
-      <c r="AL144" s="56"/>
-      <c r="AM144" s="56"/>
-      <c r="AN144" s="57"/>
+      <c r="AC144" s="53"/>
+      <c r="AD144" s="55"/>
+      <c r="AE144" s="55"/>
+      <c r="AF144" s="55"/>
+      <c r="AG144" s="55"/>
+      <c r="AH144" s="55"/>
+      <c r="AI144" s="55"/>
+      <c r="AJ144" s="55"/>
+      <c r="AK144" s="55"/>
+      <c r="AL144" s="55"/>
+      <c r="AM144" s="55"/>
+      <c r="AN144" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="37">
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="AK103:AM104"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="AK107:AM107"/>
+    <mergeCell ref="AK108:AM108"/>
+    <mergeCell ref="AK109:AM109"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AD106:AD111"/>
+    <mergeCell ref="AI103:AI104"/>
+    <mergeCell ref="AJ103:AJ104"/>
+    <mergeCell ref="AG103:AG104"/>
+    <mergeCell ref="AH103:AH104"/>
+    <mergeCell ref="AD112:AD116"/>
+    <mergeCell ref="AD117:AD120"/>
+    <mergeCell ref="AF103:AF104"/>
+    <mergeCell ref="AE103:AE104"/>
+    <mergeCell ref="AD103:AD104"/>
     <mergeCell ref="AJ133:AK134"/>
     <mergeCell ref="AL133:AM134"/>
     <mergeCell ref="AH99:AI99"/>
@@ -10666,78 +11288,55 @@
     <mergeCell ref="AM126:AM127"/>
     <mergeCell ref="AM124:AM125"/>
     <mergeCell ref="AJ127:AK127"/>
-    <mergeCell ref="AD112:AD116"/>
-    <mergeCell ref="AD117:AD120"/>
-    <mergeCell ref="AF103:AF104"/>
-    <mergeCell ref="AE103:AE104"/>
-    <mergeCell ref="AD103:AD104"/>
-    <mergeCell ref="Y99:Z99"/>
-    <mergeCell ref="AD106:AD111"/>
-    <mergeCell ref="AI103:AI104"/>
-    <mergeCell ref="AJ103:AJ104"/>
-    <mergeCell ref="AG103:AG104"/>
-    <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AK105:AM105"/>
-    <mergeCell ref="AK103:AM104"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="AK107:AM107"/>
-    <mergeCell ref="AK108:AM108"/>
-    <mergeCell ref="AK109:AM109"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="K126:M126"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K109:M109"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O49:O52">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  <conditionalFormatting sqref="P49:P52 Q50">
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P49:P50">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  <conditionalFormatting sqref="P60:P63">
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N60:N63">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  <conditionalFormatting sqref="V60:X61">
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:R61">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  <conditionalFormatting sqref="Q62">
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S60:T61">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  <conditionalFormatting sqref="Q60:Q61">
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O62">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  <conditionalFormatting sqref="S49:T50">
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O60:O61">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  <conditionalFormatting sqref="L71">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q49:R50">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="O69:O70">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R62">
+  <conditionalFormatting sqref="V60:V61">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V62">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R60:R61 T60:U61">
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S60:S61">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
+  <conditionalFormatting sqref="R49:R50">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O69:O70">
+  <conditionalFormatting sqref="R49:R50">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10751,8 +11350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38:N52"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11719,8 +12318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22:BR22"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="BA52" sqref="A50:BA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="14.25"/>
